--- a/database/industries/urea/shapdis/cost/quarterly.xlsx
+++ b/database/industries/urea/shapdis/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\urea\shapdis\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\shapdis\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE420E51-B1E3-4283-9F00-D4F2ED2B25D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="92">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -31,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/12</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/03</t>
@@ -285,7 +301,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,7 +471,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -467,7 +483,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -514,6 +530,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -549,6 +582,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -700,17 +750,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I190"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +769,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -731,8 +786,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -743,8 +803,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -753,8 +818,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -765,8 +835,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -777,8 +852,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -787,8 +867,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -809,8 +894,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -819,142 +919,237 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>3601787</v>
+      </c>
+      <c r="F10" s="9">
+        <v>5218799</v>
+      </c>
+      <c r="G10" s="9">
+        <v>-1408383</v>
+      </c>
+      <c r="H10" s="9">
+        <v>10529879</v>
+      </c>
+      <c r="I10" s="9">
+        <v>11919607</v>
+      </c>
+      <c r="J10" s="9">
         <v>10792501</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>5389065</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>26993232</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>22774849</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>19735858</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>175997</v>
+      </c>
+      <c r="F11" s="11">
+        <v>232934</v>
+      </c>
+      <c r="G11" s="11">
+        <v>334316</v>
+      </c>
+      <c r="H11" s="11">
+        <v>338149</v>
+      </c>
+      <c r="I11" s="11">
+        <v>331558</v>
+      </c>
+      <c r="J11" s="11">
         <v>445963</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>659122</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>502672</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>478995</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>540973</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>3004894</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2803602</v>
+      </c>
+      <c r="G12" s="9">
+        <v>9056369</v>
+      </c>
+      <c r="H12" s="9">
+        <v>3329414</v>
+      </c>
+      <c r="I12" s="9">
+        <v>3773494</v>
+      </c>
+      <c r="J12" s="9">
         <v>3732056</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>20518419</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>10537866</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>14246404</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>24423201</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>6782678</v>
+      </c>
+      <c r="F13" s="13">
+        <v>8255335</v>
+      </c>
+      <c r="G13" s="13">
+        <v>7982302</v>
+      </c>
+      <c r="H13" s="13">
+        <v>14197442</v>
+      </c>
+      <c r="I13" s="13">
+        <v>16024659</v>
+      </c>
+      <c r="J13" s="13">
         <v>14970520</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>26566606</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>38033770</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>37500248</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>44700032</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>-97445</v>
+      </c>
+      <c r="F14" s="9">
+        <v>24443</v>
+      </c>
+      <c r="G14" s="9">
+        <v>-47736</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>-120684</v>
+      </c>
+      <c r="J14" s="9">
         <v>-40068</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>-102408</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>-169829</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>-344974</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>-69922</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>6685233</v>
+      </c>
+      <c r="F15" s="13">
+        <v>8279778</v>
+      </c>
+      <c r="G15" s="13">
+        <v>7934566</v>
+      </c>
+      <c r="H15" s="13">
+        <v>14197442</v>
+      </c>
+      <c r="I15" s="13">
+        <v>15903975</v>
+      </c>
+      <c r="J15" s="13">
         <v>14930452</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>26464198</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>37863941</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>37155274</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>44630110</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -973,10 +1168,25 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -995,32 +1205,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>6685233</v>
+      </c>
+      <c r="F18" s="15">
+        <v>8279778</v>
+      </c>
+      <c r="G18" s="15">
+        <v>7934566</v>
+      </c>
+      <c r="H18" s="15">
+        <v>14197442</v>
+      </c>
+      <c r="I18" s="15">
+        <v>15903975</v>
+      </c>
+      <c r="J18" s="15">
         <v>14930452</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>26464198</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>37863941</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>37155274</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>44630110</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1028,73 +1268,118 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>2984107</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
         <v>3769597</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>3553374</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-1699573</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-13447</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-2715195</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-243601</v>
+      </c>
+      <c r="J20" s="9">
         <v>-842995</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>32194</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-3838634</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-6027088</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-2640826</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>10238607</v>
+      </c>
+      <c r="F21" s="13">
+        <v>6580206</v>
+      </c>
+      <c r="G21" s="13">
+        <v>7921119</v>
+      </c>
+      <c r="H21" s="13">
+        <v>14466354</v>
+      </c>
+      <c r="I21" s="13">
+        <v>15660374</v>
+      </c>
+      <c r="J21" s="13">
         <v>14087457</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>26496392</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>37794904</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>31128186</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>41989284</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>0</v>
+        <v>317945</v>
       </c>
       <c r="F22" s="9">
-        <v>0</v>
+        <v>-317945</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -1105,30 +1390,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>10556552</v>
+      </c>
+      <c r="F23" s="13">
+        <v>6262261</v>
+      </c>
+      <c r="G23" s="13">
+        <v>7921119</v>
+      </c>
+      <c r="H23" s="13">
+        <v>14466354</v>
+      </c>
+      <c r="I23" s="13">
+        <v>15660374</v>
+      </c>
+      <c r="J23" s="13">
         <v>14087457</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>26496392</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>37794904</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>31128186</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>41989284</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1137,8 +1452,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1147,8 +1467,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1157,10 +1482,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1179,8 +1509,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1189,133 +1534,213 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
         <v>0</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
         <v>0</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
         <v>0</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
@@ -1333,58 +1758,103 @@
       <c r="I34" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9">
-        <v>0</v>
+      <c r="E35" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
         <v>0</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -1403,8 +1873,23 @@
       <c r="I37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1413,8 +1898,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1423,8 +1913,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1433,10 +1928,15 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1455,8 +1955,23 @@
       <c r="I41" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1465,222 +1980,362 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H44" s="11">
+        <v>138330</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
+        <v>60462500</v>
+      </c>
+      <c r="F45" s="9">
         <v>88387200</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G45" s="9">
+        <v>88387200</v>
+      </c>
+      <c r="H45" s="9">
+        <v>85536000</v>
+      </c>
+      <c r="I45" s="9">
+        <v>85536000</v>
+      </c>
+      <c r="J45" s="9">
+        <v>88387200</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
+        <v>4726</v>
+      </c>
+      <c r="F46" s="11">
+        <v>7480</v>
+      </c>
+      <c r="G46" s="11">
+        <v>14788648</v>
+      </c>
+      <c r="H46" s="11">
+        <v>6009583</v>
+      </c>
+      <c r="I46" s="11">
+        <v>7028366</v>
+      </c>
+      <c r="J46" s="11">
         <v>4333935</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K46" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
+        <v>91827</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="9">
+        <v>263123</v>
+      </c>
+      <c r="J47" s="9">
         <v>138824</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>247593236</v>
+      </c>
+      <c r="F48" s="11">
+        <v>389001410</v>
+      </c>
+      <c r="G48" s="11">
+        <v>346476966</v>
+      </c>
+      <c r="H48" s="11">
+        <v>383715657</v>
+      </c>
+      <c r="I48" s="11">
+        <v>347957418</v>
+      </c>
+      <c r="J48" s="11">
         <v>391224041</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>381556607</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>351744448</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>304135529</v>
       </c>
-      <c r="I48" s="11">
+      <c r="N48" s="11">
         <v>394015801</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="9">
-        <v>0</v>
+      <c r="E49" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I49" s="9">
+        <v>0</v>
+      </c>
+      <c r="J49" s="9">
+        <v>0</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
+        <v>286745</v>
+      </c>
+      <c r="F50" s="11">
+        <v>444171</v>
+      </c>
+      <c r="G50" s="11">
+        <v>448309</v>
+      </c>
+      <c r="H50" s="11">
+        <v>409512</v>
+      </c>
+      <c r="I50" s="11">
+        <v>444081</v>
+      </c>
+      <c r="J50" s="11">
         <v>429172</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K50" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
+        <v>308439034</v>
+      </c>
+      <c r="F51" s="15">
+        <v>477840261</v>
+      </c>
+      <c r="G51" s="15">
+        <v>450101123</v>
+      </c>
+      <c r="H51" s="15">
+        <v>475809082</v>
+      </c>
+      <c r="I51" s="15">
+        <v>441228988</v>
+      </c>
+      <c r="J51" s="15">
         <v>484513172</v>
       </c>
-      <c r="F51" s="15">
+      <c r="K51" s="15">
         <v>381556607</v>
       </c>
-      <c r="G51" s="15">
+      <c r="L51" s="15">
         <v>351744448</v>
       </c>
-      <c r="H51" s="15">
+      <c r="M51" s="15">
         <v>304135529</v>
       </c>
-      <c r="I51" s="15">
+      <c r="N51" s="15">
         <v>394015801</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1689,8 +2344,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1699,8 +2359,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1709,10 +2374,15 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1731,8 +2401,23 @@
       <c r="I55" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1741,222 +2426,362 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H58" s="11">
+        <v>138330</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
+        <v>60462500</v>
+      </c>
+      <c r="F59" s="9">
         <v>88387200</v>
       </c>
-      <c r="F59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G59" s="9">
+        <v>88387200</v>
+      </c>
+      <c r="H59" s="9">
+        <v>85536000</v>
+      </c>
+      <c r="I59" s="9">
+        <v>85536000</v>
+      </c>
+      <c r="J59" s="9">
+        <v>88387200</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
+        <v>4726</v>
+      </c>
+      <c r="F60" s="11">
+        <v>7480</v>
+      </c>
+      <c r="G60" s="11">
+        <v>14788648</v>
+      </c>
+      <c r="H60" s="11">
+        <v>6009583</v>
+      </c>
+      <c r="I60" s="11">
+        <v>7028366</v>
+      </c>
+      <c r="J60" s="11">
         <v>4333935</v>
       </c>
-      <c r="F60" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
+        <v>91827</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" s="9">
+        <v>263123</v>
+      </c>
+      <c r="J61" s="9">
         <v>138824</v>
       </c>
-      <c r="F61" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
+        <v>247593236</v>
+      </c>
+      <c r="F62" s="11">
+        <v>389001410</v>
+      </c>
+      <c r="G62" s="11">
+        <v>346476966</v>
+      </c>
+      <c r="H62" s="11">
+        <v>383715657</v>
+      </c>
+      <c r="I62" s="11">
+        <v>347957418</v>
+      </c>
+      <c r="J62" s="11">
         <v>391224041</v>
       </c>
-      <c r="F62" s="11">
+      <c r="K62" s="11">
         <v>381556607</v>
       </c>
-      <c r="G62" s="11">
+      <c r="L62" s="11">
         <v>351744448</v>
       </c>
-      <c r="H62" s="11">
+      <c r="M62" s="11">
         <v>304135529</v>
       </c>
-      <c r="I62" s="11">
+      <c r="N62" s="11">
         <v>394015801</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D63" s="9"/>
-      <c r="E63" s="9">
-        <v>0</v>
+      <c r="E63" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I63" s="9">
+        <v>0</v>
+      </c>
+      <c r="J63" s="9">
+        <v>0</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>286745</v>
+      </c>
+      <c r="F64" s="11">
+        <v>444171</v>
+      </c>
+      <c r="G64" s="11">
+        <v>448309</v>
+      </c>
+      <c r="H64" s="11">
+        <v>409512</v>
+      </c>
+      <c r="I64" s="11">
+        <v>444081</v>
+      </c>
+      <c r="J64" s="11">
         <v>429172</v>
       </c>
-      <c r="F64" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K64" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15">
+        <v>308439034</v>
+      </c>
+      <c r="F65" s="15">
+        <v>477840261</v>
+      </c>
+      <c r="G65" s="15">
+        <v>450101123</v>
+      </c>
+      <c r="H65" s="15">
+        <v>475809082</v>
+      </c>
+      <c r="I65" s="15">
+        <v>441228988</v>
+      </c>
+      <c r="J65" s="15">
         <v>484513172</v>
       </c>
-      <c r="F65" s="15">
+      <c r="K65" s="15">
         <v>381556607</v>
       </c>
-      <c r="G65" s="15">
+      <c r="L65" s="15">
         <v>351744448</v>
       </c>
-      <c r="H65" s="15">
+      <c r="M65" s="15">
         <v>304135529</v>
       </c>
-      <c r="I65" s="15">
+      <c r="N65" s="15">
         <v>394015801</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1965,8 +2790,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1975,8 +2805,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1985,10 +2820,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2007,8 +2847,23 @@
       <c r="I69" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2017,133 +2872,213 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I71" s="9">
+        <v>0</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="F72" s="11">
+        <v>0</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
         <v>0</v>
       </c>
-      <c r="F73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F73" s="9">
+        <v>0</v>
+      </c>
+      <c r="G73" s="9">
+        <v>0</v>
+      </c>
+      <c r="H73" s="9">
+        <v>0</v>
+      </c>
+      <c r="I73" s="9">
+        <v>0</v>
+      </c>
+      <c r="J73" s="9">
+        <v>0</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
         <v>0</v>
       </c>
-      <c r="F74" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F74" s="11">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11">
+        <v>0</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0</v>
+      </c>
+      <c r="I74" s="11">
+        <v>0</v>
+      </c>
+      <c r="J74" s="11">
+        <v>0</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
         <v>0</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G75" s="9">
+        <v>0</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I75" s="9">
+        <v>0</v>
+      </c>
+      <c r="J75" s="9">
+        <v>0</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
@@ -2161,58 +3096,103 @@
       <c r="I76" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="11">
+        <v>0</v>
+      </c>
+      <c r="K76" s="11">
+        <v>0</v>
+      </c>
+      <c r="L76" s="11">
+        <v>0</v>
+      </c>
+      <c r="M76" s="11">
+        <v>0</v>
+      </c>
+      <c r="N76" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9">
-        <v>0</v>
+      <c r="E77" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I77" s="9">
+        <v>0</v>
+      </c>
+      <c r="J77" s="9">
+        <v>0</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
         <v>0</v>
       </c>
-      <c r="F78" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F78" s="11">
+        <v>0</v>
+      </c>
+      <c r="G78" s="11">
+        <v>0</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0</v>
+      </c>
+      <c r="I78" s="11">
+        <v>0</v>
+      </c>
+      <c r="J78" s="11">
+        <v>0</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
@@ -2231,8 +3211,23 @@
       <c r="I79" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="15">
+        <v>0</v>
+      </c>
+      <c r="K79" s="15">
+        <v>0</v>
+      </c>
+      <c r="L79" s="15">
+        <v>0</v>
+      </c>
+      <c r="M79" s="15">
+        <v>0</v>
+      </c>
+      <c r="N79" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2241,8 +3236,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2251,8 +3251,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2261,10 +3266,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2283,8 +3293,23 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2293,133 +3318,213 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H86" s="11">
+        <v>0</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
         <v>0</v>
       </c>
-      <c r="F87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F87" s="9">
+        <v>0</v>
+      </c>
+      <c r="G87" s="9">
+        <v>0</v>
+      </c>
+      <c r="H87" s="9">
+        <v>0</v>
+      </c>
+      <c r="I87" s="9">
+        <v>0</v>
+      </c>
+      <c r="J87" s="9">
+        <v>0</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
         <v>0</v>
       </c>
-      <c r="F88" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I88" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F88" s="11">
+        <v>0</v>
+      </c>
+      <c r="G88" s="11">
+        <v>0</v>
+      </c>
+      <c r="H88" s="11">
+        <v>0</v>
+      </c>
+      <c r="I88" s="11">
+        <v>0</v>
+      </c>
+      <c r="J88" s="11">
+        <v>0</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
         <v>0</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J89" s="9">
+        <v>0</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
@@ -2437,58 +3542,103 @@
       <c r="I90" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="11">
+        <v>0</v>
+      </c>
+      <c r="K90" s="11">
+        <v>0</v>
+      </c>
+      <c r="L90" s="11">
+        <v>0</v>
+      </c>
+      <c r="M90" s="11">
+        <v>0</v>
+      </c>
+      <c r="N90" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9">
-        <v>0</v>
+      <c r="E91" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J91" s="9">
+        <v>0</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
         <v>0</v>
       </c>
-      <c r="F92" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I92" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F92" s="11">
+        <v>0</v>
+      </c>
+      <c r="G92" s="11">
+        <v>0</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0</v>
+      </c>
+      <c r="I92" s="11">
+        <v>0</v>
+      </c>
+      <c r="J92" s="11">
+        <v>0</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
@@ -2507,8 +3657,23 @@
       <c r="I93" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="15">
+        <v>0</v>
+      </c>
+      <c r="K93" s="15">
+        <v>0</v>
+      </c>
+      <c r="L93" s="15">
+        <v>0</v>
+      </c>
+      <c r="M93" s="15">
+        <v>0</v>
+      </c>
+      <c r="N93" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2517,8 +3682,13 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2527,8 +3697,13 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2537,10 +3712,15 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2559,8 +3739,23 @@
       <c r="I97" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2569,222 +3764,362 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I99" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I99" s="9">
+        <v>0</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H100" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H100" s="11">
+        <v>530357</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K100" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L100" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M100" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N100" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
+        <v>325359</v>
+      </c>
+      <c r="F101" s="9">
+        <v>567414</v>
+      </c>
+      <c r="G101" s="9">
+        <v>600495</v>
+      </c>
+      <c r="H101" s="9">
+        <v>428450</v>
+      </c>
+      <c r="I101" s="9">
+        <v>593021</v>
+      </c>
+      <c r="J101" s="9">
         <v>527760</v>
       </c>
-      <c r="F101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I101" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N101" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>211488</v>
+      </c>
+      <c r="F102" s="11">
+        <v>247644</v>
+      </c>
+      <c r="G102" s="11">
+        <v>519411</v>
+      </c>
+      <c r="H102" s="11">
+        <v>610670</v>
+      </c>
+      <c r="I102" s="11">
+        <v>816563</v>
+      </c>
+      <c r="J102" s="11">
         <v>801478</v>
       </c>
-      <c r="F102" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H102" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N102" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
+        <v>372672</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I103" s="9">
+        <v>1202572</v>
+      </c>
+      <c r="J103" s="9">
         <v>634478</v>
       </c>
-      <c r="F103" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I103" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K103" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M103" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N103" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
+        <v>2402185</v>
+      </c>
+      <c r="F104" s="11">
+        <v>3208673</v>
+      </c>
+      <c r="G104" s="11">
+        <v>2835060</v>
+      </c>
+      <c r="H104" s="11">
+        <v>8567195</v>
+      </c>
+      <c r="I104" s="11">
+        <v>9253990</v>
+      </c>
+      <c r="J104" s="11">
         <v>8337554</v>
       </c>
-      <c r="F104" s="11">
+      <c r="K104" s="11">
         <v>12472313</v>
       </c>
-      <c r="G104" s="11">
+      <c r="L104" s="11">
         <v>26993232</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>22774849</v>
       </c>
-      <c r="I104" s="11">
+      <c r="N104" s="11">
         <v>19735858</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D105" s="9"/>
-      <c r="E105" s="9">
-        <v>0</v>
+      <c r="E105" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I105" s="9">
+        <v>0</v>
+      </c>
+      <c r="J105" s="9">
+        <v>0</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
+        <v>290083</v>
+      </c>
+      <c r="F106" s="11">
+        <v>534212</v>
+      </c>
+      <c r="G106" s="11">
+        <v>582568</v>
+      </c>
+      <c r="H106" s="11">
+        <v>393207</v>
+      </c>
+      <c r="I106" s="11">
+        <v>583818</v>
+      </c>
+      <c r="J106" s="11">
         <v>491231</v>
       </c>
-      <c r="F106" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I106" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K106" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
+        <v>3601787</v>
+      </c>
+      <c r="F107" s="15">
+        <v>4557943</v>
+      </c>
+      <c r="G107" s="15">
+        <v>4537534</v>
+      </c>
+      <c r="H107" s="15">
+        <v>10529879</v>
+      </c>
+      <c r="I107" s="15">
+        <v>12449964</v>
+      </c>
+      <c r="J107" s="15">
         <v>10792501</v>
       </c>
-      <c r="F107" s="15">
+      <c r="K107" s="15">
         <v>12472313</v>
       </c>
-      <c r="G107" s="15">
+      <c r="L107" s="15">
         <v>26993232</v>
       </c>
-      <c r="H107" s="15">
+      <c r="M107" s="15">
         <v>22774849</v>
       </c>
-      <c r="I107" s="15">
+      <c r="N107" s="15">
         <v>19735858</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2793,8 +4128,13 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2803,8 +4143,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2813,10 +4158,15 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -2835,8 +4185,23 @@
       <c r="I111" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2845,222 +4210,362 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I113" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I113" s="9">
+        <v>0</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N113" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H114" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H114" s="11">
+        <v>530357</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K114" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L114" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M114" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N114" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
+        <v>325359</v>
+      </c>
+      <c r="F115" s="9">
+        <v>567414</v>
+      </c>
+      <c r="G115" s="9">
+        <v>600495</v>
+      </c>
+      <c r="H115" s="9">
+        <v>428450</v>
+      </c>
+      <c r="I115" s="9">
+        <v>593021</v>
+      </c>
+      <c r="J115" s="9">
         <v>527760</v>
       </c>
-      <c r="F115" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K115" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L115" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M115" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N115" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
+        <v>211488</v>
+      </c>
+      <c r="F116" s="11">
+        <v>247644</v>
+      </c>
+      <c r="G116" s="11">
+        <v>519411</v>
+      </c>
+      <c r="H116" s="11">
+        <v>610670</v>
+      </c>
+      <c r="I116" s="11">
+        <v>816563</v>
+      </c>
+      <c r="J116" s="11">
         <v>801478</v>
       </c>
-      <c r="F116" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H116" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I116" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K116" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M116" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N116" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
+        <v>372672</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I117" s="9">
+        <v>1202572</v>
+      </c>
+      <c r="J117" s="9">
         <v>634478</v>
       </c>
-      <c r="F117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I117" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N117" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
+        <v>2402185</v>
+      </c>
+      <c r="F118" s="11">
+        <v>3208673</v>
+      </c>
+      <c r="G118" s="11">
+        <v>2835060</v>
+      </c>
+      <c r="H118" s="11">
+        <v>8567195</v>
+      </c>
+      <c r="I118" s="11">
+        <v>9253990</v>
+      </c>
+      <c r="J118" s="11">
         <v>8337554</v>
       </c>
-      <c r="F118" s="11">
+      <c r="K118" s="11">
         <v>12472313</v>
       </c>
-      <c r="G118" s="11">
+      <c r="L118" s="11">
         <v>26993232</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>22774849</v>
       </c>
-      <c r="I118" s="11">
+      <c r="N118" s="11">
         <v>19735858</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D119" s="9"/>
-      <c r="E119" s="9">
-        <v>0</v>
+      <c r="E119" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I119" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I119" s="9">
+        <v>0</v>
+      </c>
+      <c r="J119" s="9">
+        <v>0</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N119" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
+        <v>290083</v>
+      </c>
+      <c r="F120" s="11">
+        <v>534212</v>
+      </c>
+      <c r="G120" s="11">
+        <v>582568</v>
+      </c>
+      <c r="H120" s="11">
+        <v>393207</v>
+      </c>
+      <c r="I120" s="11">
+        <v>583818</v>
+      </c>
+      <c r="J120" s="11">
         <v>491231</v>
       </c>
-      <c r="F120" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I120" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N120" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
+        <v>3601787</v>
+      </c>
+      <c r="F121" s="15">
+        <v>4557943</v>
+      </c>
+      <c r="G121" s="15">
+        <v>4537534</v>
+      </c>
+      <c r="H121" s="15">
+        <v>10529879</v>
+      </c>
+      <c r="I121" s="15">
+        <v>12449964</v>
+      </c>
+      <c r="J121" s="15">
         <v>10792501</v>
       </c>
-      <c r="F121" s="15">
+      <c r="K121" s="15">
         <v>12472313</v>
       </c>
-      <c r="G121" s="15">
+      <c r="L121" s="15">
         <v>26993232</v>
       </c>
-      <c r="H121" s="15">
+      <c r="M121" s="15">
         <v>22774849</v>
       </c>
-      <c r="I121" s="15">
+      <c r="N121" s="15">
         <v>19735858</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3069,8 +4574,13 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3079,8 +4589,13 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3089,10 +4604,15 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3111,8 +4631,23 @@
       <c r="I125" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3121,133 +4656,213 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I127" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I127" s="9">
+        <v>0</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N127" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="F128" s="11">
+        <v>0</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H128" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H128" s="11">
+        <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K128" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L128" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M128" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N128" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
         <v>0</v>
       </c>
-      <c r="F129" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H129" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I129" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F129" s="9">
+        <v>0</v>
+      </c>
+      <c r="G129" s="9">
+        <v>0</v>
+      </c>
+      <c r="H129" s="9">
+        <v>0</v>
+      </c>
+      <c r="I129" s="9">
+        <v>0</v>
+      </c>
+      <c r="J129" s="9">
+        <v>0</v>
+      </c>
+      <c r="K129" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L129" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M129" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N129" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
         <v>0</v>
       </c>
-      <c r="F130" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G130" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H130" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I130" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F130" s="11">
+        <v>0</v>
+      </c>
+      <c r="G130" s="11">
+        <v>0</v>
+      </c>
+      <c r="H130" s="11">
+        <v>0</v>
+      </c>
+      <c r="I130" s="11">
+        <v>0</v>
+      </c>
+      <c r="J130" s="11">
+        <v>0</v>
+      </c>
+      <c r="K130" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L130" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M130" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N130" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
         <v>0</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G131" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G131" s="9">
+        <v>0</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I131" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I131" s="9">
+        <v>0</v>
+      </c>
+      <c r="J131" s="9">
+        <v>0</v>
+      </c>
+      <c r="K131" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L131" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M131" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N131" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
@@ -3265,58 +4880,103 @@
       <c r="I132" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="11">
+        <v>0</v>
+      </c>
+      <c r="K132" s="11">
+        <v>0</v>
+      </c>
+      <c r="L132" s="11">
+        <v>0</v>
+      </c>
+      <c r="M132" s="11">
+        <v>0</v>
+      </c>
+      <c r="N132" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D133" s="9"/>
-      <c r="E133" s="9">
-        <v>0</v>
+      <c r="E133" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I133" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I133" s="9">
+        <v>0</v>
+      </c>
+      <c r="J133" s="9">
+        <v>0</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N133" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
         <v>0</v>
       </c>
-      <c r="F134" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G134" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H134" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I134" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F134" s="11">
+        <v>0</v>
+      </c>
+      <c r="G134" s="11">
+        <v>0</v>
+      </c>
+      <c r="H134" s="11">
+        <v>0</v>
+      </c>
+      <c r="I134" s="11">
+        <v>0</v>
+      </c>
+      <c r="J134" s="11">
+        <v>0</v>
+      </c>
+      <c r="K134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N134" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
@@ -3335,8 +4995,23 @@
       <c r="I135" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="15">
+        <v>0</v>
+      </c>
+      <c r="K135" s="15">
+        <v>0</v>
+      </c>
+      <c r="L135" s="15">
+        <v>0</v>
+      </c>
+      <c r="M135" s="15">
+        <v>0</v>
+      </c>
+      <c r="N135" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3345,8 +5020,13 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3355,8 +5035,13 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3365,10 +5050,15 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -3387,8 +5077,23 @@
       <c r="I139" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N139" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3397,152 +5102,247 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H141" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H141" s="9">
+        <v>3833998</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K141" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L141" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M141" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N141" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
+        <v>5381</v>
+      </c>
+      <c r="F142" s="11">
+        <v>6420</v>
+      </c>
+      <c r="G142" s="11">
+        <v>6794</v>
+      </c>
+      <c r="H142" s="11">
+        <v>5009</v>
+      </c>
+      <c r="I142" s="11">
+        <v>6933</v>
+      </c>
+      <c r="J142" s="11">
         <v>5971</v>
       </c>
-      <c r="F142" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H142" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I142" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K142" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L142" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M142" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N142" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
+        <v>44749894</v>
+      </c>
+      <c r="F143" s="9">
+        <v>33107487</v>
+      </c>
+      <c r="G143" s="9">
+        <v>35122</v>
+      </c>
+      <c r="H143" s="9">
+        <v>101616</v>
+      </c>
+      <c r="I143" s="9">
+        <v>116181</v>
+      </c>
+      <c r="J143" s="9">
         <v>184931</v>
       </c>
-      <c r="F143" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G143" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H143" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I143" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K143" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L143" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M143" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N143" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
+        <v>4058414</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I144" s="11">
+        <v>4570380</v>
+      </c>
+      <c r="J144" s="11">
         <v>4570377</v>
       </c>
-      <c r="F144" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G144" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H144" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I144" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K144" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L144" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M144" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N144" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
+        <v>9702</v>
+      </c>
+      <c r="F145" s="9">
+        <v>8248</v>
+      </c>
+      <c r="G145" s="9">
+        <v>8183</v>
+      </c>
+      <c r="H145" s="9">
+        <v>22327</v>
+      </c>
+      <c r="I145" s="9">
+        <v>26595</v>
+      </c>
+      <c r="J145" s="9">
         <v>21311</v>
       </c>
-      <c r="F145" s="9">
+      <c r="K145" s="9">
         <v>32688</v>
       </c>
-      <c r="G145" s="9">
+      <c r="L145" s="9">
         <v>76741</v>
       </c>
-      <c r="H145" s="9">
+      <c r="M145" s="9">
         <v>74884</v>
       </c>
-      <c r="I145" s="9">
+      <c r="N145" s="9">
         <v>50089</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
+        <v>1011641</v>
+      </c>
+      <c r="F146" s="11">
+        <v>1202717</v>
+      </c>
+      <c r="G146" s="11">
+        <v>1299479</v>
+      </c>
+      <c r="H146" s="11">
+        <v>960184</v>
+      </c>
+      <c r="I146" s="11">
+        <v>1314666</v>
+      </c>
+      <c r="J146" s="11">
         <v>1144602</v>
       </c>
-      <c r="F146" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H146" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I146" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N146" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3551,8 +5351,13 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3561,8 +5366,13 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3571,10 +5381,15 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -3593,8 +5408,23 @@
       <c r="I150" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M150" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N150" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3603,152 +5433,247 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H152" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H152" s="9">
+        <v>3833998</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K152" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L152" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M152" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N152" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D153" s="11"/>
       <c r="E153" s="11">
+        <v>5381</v>
+      </c>
+      <c r="F153" s="11">
+        <v>6420</v>
+      </c>
+      <c r="G153" s="11">
+        <v>6794</v>
+      </c>
+      <c r="H153" s="11">
+        <v>5009</v>
+      </c>
+      <c r="I153" s="11">
+        <v>6933</v>
+      </c>
+      <c r="J153" s="11">
         <v>5971</v>
       </c>
-      <c r="F153" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H153" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I153" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K153" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L153" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M153" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N153" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9">
+        <v>44749894</v>
+      </c>
+      <c r="F154" s="9">
+        <v>33107487</v>
+      </c>
+      <c r="G154" s="9">
+        <v>35122</v>
+      </c>
+      <c r="H154" s="9">
+        <v>101616</v>
+      </c>
+      <c r="I154" s="9">
+        <v>116181</v>
+      </c>
+      <c r="J154" s="9">
         <v>184931</v>
       </c>
-      <c r="F154" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G154" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H154" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I154" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K154" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L154" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M154" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N154" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11">
+        <v>4058414</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I155" s="11">
+        <v>4570380</v>
+      </c>
+      <c r="J155" s="11">
         <v>4570377</v>
       </c>
-      <c r="F155" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H155" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I155" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K155" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L155" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M155" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N155" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9">
+        <v>9702</v>
+      </c>
+      <c r="F156" s="9">
+        <v>8248</v>
+      </c>
+      <c r="G156" s="9">
+        <v>8183</v>
+      </c>
+      <c r="H156" s="9">
+        <v>22327</v>
+      </c>
+      <c r="I156" s="9">
+        <v>26595</v>
+      </c>
+      <c r="J156" s="9">
         <v>21311</v>
       </c>
-      <c r="F156" s="9">
+      <c r="K156" s="9">
         <v>32688</v>
       </c>
-      <c r="G156" s="9">
+      <c r="L156" s="9">
         <v>76741</v>
       </c>
-      <c r="H156" s="9">
+      <c r="M156" s="9">
         <v>74884</v>
       </c>
-      <c r="I156" s="9">
+      <c r="N156" s="9">
         <v>50089</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="11">
+        <v>1011641</v>
+      </c>
+      <c r="F157" s="11">
+        <v>1202717</v>
+      </c>
+      <c r="G157" s="11">
+        <v>1299479</v>
+      </c>
+      <c r="H157" s="11">
+        <v>960184</v>
+      </c>
+      <c r="I157" s="11">
+        <v>1314666</v>
+      </c>
+      <c r="J157" s="11">
         <v>1144602</v>
       </c>
-      <c r="F157" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G157" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H157" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I157" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K157" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L157" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M157" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N157" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3757,8 +5682,13 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -3767,8 +5697,13 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3777,10 +5712,15 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B161" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -3799,8 +5739,23 @@
       <c r="I161" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K161" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L161" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M161" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N161" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3809,10 +5764,15 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -3831,10 +5791,25 @@
       <c r="I163" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="9">
+        <v>0</v>
+      </c>
+      <c r="K163" s="9">
+        <v>0</v>
+      </c>
+      <c r="L163" s="9">
+        <v>0</v>
+      </c>
+      <c r="M163" s="9">
+        <v>0</v>
+      </c>
+      <c r="N163" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -3853,10 +5828,25 @@
       <c r="I164" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="11">
+        <v>0</v>
+      </c>
+      <c r="K164" s="11">
+        <v>0</v>
+      </c>
+      <c r="L164" s="11">
+        <v>0</v>
+      </c>
+      <c r="M164" s="11">
+        <v>0</v>
+      </c>
+      <c r="N164" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -3875,10 +5865,25 @@
       <c r="I165" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="9">
+        <v>0</v>
+      </c>
+      <c r="K165" s="9">
+        <v>0</v>
+      </c>
+      <c r="L165" s="9">
+        <v>0</v>
+      </c>
+      <c r="M165" s="9">
+        <v>0</v>
+      </c>
+      <c r="N165" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -3897,98 +5902,173 @@
       <c r="I166" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="11">
+        <v>0</v>
+      </c>
+      <c r="K166" s="11">
+        <v>0</v>
+      </c>
+      <c r="L166" s="11">
+        <v>0</v>
+      </c>
+      <c r="M166" s="11">
+        <v>0</v>
+      </c>
+      <c r="N166" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="E167" s="9">
+        <v>90541</v>
+      </c>
+      <c r="F167" s="9">
+        <v>57803</v>
+      </c>
+      <c r="G167" s="9">
+        <v>101310</v>
+      </c>
+      <c r="H167" s="9">
+        <v>68935</v>
+      </c>
+      <c r="I167" s="9">
+        <v>102037</v>
+      </c>
+      <c r="J167" s="9">
         <v>66567</v>
       </c>
-      <c r="F167" s="9">
+      <c r="K167" s="9">
         <v>124031</v>
       </c>
-      <c r="G167" s="9">
+      <c r="L167" s="9">
         <v>58907</v>
       </c>
-      <c r="H167" s="9">
+      <c r="M167" s="9">
         <v>677439</v>
       </c>
-      <c r="I167" s="9">
+      <c r="N167" s="9">
         <v>279608</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
       <c r="E168" s="11">
+        <v>319330</v>
+      </c>
+      <c r="F168" s="11">
+        <v>482233</v>
+      </c>
+      <c r="G168" s="11">
+        <v>7587989</v>
+      </c>
+      <c r="H168" s="11">
+        <v>459349</v>
+      </c>
+      <c r="I168" s="11">
+        <v>445198</v>
+      </c>
+      <c r="J168" s="11">
         <v>1242027</v>
       </c>
-      <c r="F168" s="11">
+      <c r="K168" s="11">
         <v>16615309</v>
       </c>
-      <c r="G168" s="11">
+      <c r="L168" s="11">
         <v>7794618</v>
       </c>
-      <c r="H168" s="11">
+      <c r="M168" s="11">
         <v>-1276757</v>
       </c>
-      <c r="I168" s="11">
+      <c r="N168" s="11">
         <v>3617140</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9">
+        <v>908532</v>
+      </c>
+      <c r="F169" s="9">
+        <v>663304</v>
+      </c>
+      <c r="G169" s="9">
+        <v>663807</v>
+      </c>
+      <c r="H169" s="9">
+        <v>640631</v>
+      </c>
+      <c r="I169" s="9">
+        <v>645019</v>
+      </c>
+      <c r="J169" s="9">
         <v>671103</v>
       </c>
-      <c r="F169" s="9">
+      <c r="K169" s="9">
         <v>673228</v>
       </c>
-      <c r="G169" s="9">
+      <c r="L169" s="9">
         <v>660590</v>
       </c>
-      <c r="H169" s="9">
+      <c r="M169" s="9">
         <v>653643</v>
       </c>
-      <c r="I169" s="9">
+      <c r="N169" s="9">
         <v>420177</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11">
+        <v>251248</v>
+      </c>
+      <c r="F170" s="11">
+        <v>267916</v>
+      </c>
+      <c r="G170" s="11">
+        <v>618861</v>
+      </c>
+      <c r="H170" s="11">
+        <v>462553</v>
+      </c>
+      <c r="I170" s="11">
+        <v>501117</v>
+      </c>
+      <c r="J170" s="11">
         <v>497040</v>
       </c>
-      <c r="F170" s="11">
+      <c r="K170" s="11">
         <v>1555470</v>
       </c>
-      <c r="G170" s="11">
+      <c r="L170" s="11">
         <v>594575</v>
       </c>
-      <c r="H170" s="11">
+      <c r="M170" s="11">
         <v>782629</v>
       </c>
-      <c r="I170" s="11">
+      <c r="N170" s="11">
         <v>672801</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
@@ -4007,52 +6087,97 @@
       <c r="I171" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="9">
+        <v>0</v>
+      </c>
+      <c r="K171" s="9">
+        <v>0</v>
+      </c>
+      <c r="L171" s="9">
+        <v>0</v>
+      </c>
+      <c r="M171" s="9">
+        <v>0</v>
+      </c>
+      <c r="N171" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11">
+        <v>1435243</v>
+      </c>
+      <c r="F172" s="11">
+        <v>1332346</v>
+      </c>
+      <c r="G172" s="11">
+        <v>84402</v>
+      </c>
+      <c r="H172" s="11">
+        <v>1697946</v>
+      </c>
+      <c r="I172" s="11">
+        <v>2080123</v>
+      </c>
+      <c r="J172" s="11">
         <v>1255319</v>
       </c>
-      <c r="F172" s="11">
+      <c r="K172" s="11">
         <v>1550381</v>
       </c>
-      <c r="G172" s="11">
+      <c r="L172" s="11">
         <v>1429176</v>
       </c>
-      <c r="H172" s="11">
+      <c r="M172" s="11">
         <v>13409450</v>
       </c>
-      <c r="I172" s="11">
+      <c r="N172" s="11">
         <v>19433475</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
       <c r="E173" s="15">
+        <v>3004894</v>
+      </c>
+      <c r="F173" s="15">
+        <v>2803602</v>
+      </c>
+      <c r="G173" s="15">
+        <v>9056369</v>
+      </c>
+      <c r="H173" s="15">
+        <v>3329414</v>
+      </c>
+      <c r="I173" s="15">
+        <v>3773494</v>
+      </c>
+      <c r="J173" s="15">
         <v>3732056</v>
       </c>
-      <c r="F173" s="15">
+      <c r="K173" s="15">
         <v>20518419</v>
       </c>
-      <c r="G173" s="15">
+      <c r="L173" s="15">
         <v>10537866</v>
       </c>
-      <c r="H173" s="15">
+      <c r="M173" s="15">
         <v>14246404</v>
       </c>
-      <c r="I173" s="15">
+      <c r="N173" s="15">
         <v>24423201</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4061,8 +6186,13 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4071,8 +6201,13 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4081,10 +6216,15 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B177" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
@@ -4093,8 +6233,13 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4103,13 +6248,18 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
@@ -4117,13 +6267,18 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11"/>
@@ -4131,13 +6286,18 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
@@ -4145,101 +6305,106 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C188" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>

--- a/database/industries/urea/shapdis/cost/quarterly.xlsx
+++ b/database/industries/urea/shapdis/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\shapdis\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\shapdis\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5743DC3-BED8-45A3-B723-18E3D8E482EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECEB7A2-BBCE-45EC-BC53-A3DF9678560D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل اول منتهی به 1400/09</t>
   </si>
   <si>
@@ -82,6 +97,9 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>بهای تمام شده کالای فروش رفته</t>
   </si>
   <si>
@@ -98,9 +116,6 @@
   </si>
   <si>
     <t>میلیون ریال</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>برق اکتیو</t>
@@ -742,16 +757,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I191"/>
+  <dimension ref="B1:N191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -760,8 +775,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -772,8 +792,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -784,8 +809,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -794,8 +824,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -806,8 +841,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -818,8 +858,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -828,8 +873,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -850,8 +900,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -860,142 +925,237 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>-1408383</v>
+      </c>
+      <c r="F10" s="9">
+        <v>10529879</v>
+      </c>
+      <c r="G10" s="9">
+        <v>11919607</v>
+      </c>
+      <c r="H10" s="9">
+        <v>10792501</v>
+      </c>
+      <c r="I10" s="9">
+        <v>5389065</v>
+      </c>
+      <c r="J10" s="9">
         <v>26993232</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>22774849</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>19735858</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>23151033</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>17090292</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>334316</v>
+      </c>
+      <c r="F11" s="11">
+        <v>338149</v>
+      </c>
+      <c r="G11" s="11">
+        <v>331558</v>
+      </c>
+      <c r="H11" s="11">
+        <v>445963</v>
+      </c>
+      <c r="I11" s="11">
+        <v>659122</v>
+      </c>
+      <c r="J11" s="11">
         <v>502672</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>478995</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>540973</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>939272</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>822676</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>9056369</v>
+      </c>
+      <c r="F12" s="9">
+        <v>3329414</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3773494</v>
+      </c>
+      <c r="H12" s="9">
+        <v>3732056</v>
+      </c>
+      <c r="I12" s="9">
+        <v>20518419</v>
+      </c>
+      <c r="J12" s="9">
         <v>10537866</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>14246404</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>24423201</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>18171827</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>15611731</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>7982302</v>
+      </c>
+      <c r="F13" s="13">
+        <v>14197442</v>
+      </c>
+      <c r="G13" s="13">
+        <v>16024659</v>
+      </c>
+      <c r="H13" s="13">
+        <v>14970520</v>
+      </c>
+      <c r="I13" s="13">
+        <v>26566606</v>
+      </c>
+      <c r="J13" s="13">
         <v>38033770</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>37500248</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>44700032</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>42262132</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>33524699</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>-47736</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>-120684</v>
+      </c>
+      <c r="H14" s="9">
+        <v>-40068</v>
+      </c>
+      <c r="I14" s="9">
+        <v>-102408</v>
+      </c>
+      <c r="J14" s="9">
         <v>-169829</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>-344974</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>-69922</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>-69969</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>-141795</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>7934566</v>
+      </c>
+      <c r="F15" s="13">
+        <v>14197442</v>
+      </c>
+      <c r="G15" s="13">
+        <v>15903975</v>
+      </c>
+      <c r="H15" s="13">
+        <v>14930452</v>
+      </c>
+      <c r="I15" s="13">
+        <v>26464198</v>
+      </c>
+      <c r="J15" s="13">
         <v>37863941</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>37155274</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>44630110</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>42192163</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>33382904</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1014,10 +1174,25 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1036,98 +1211,173 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>7934566</v>
+      </c>
+      <c r="F18" s="15">
+        <v>14197442</v>
+      </c>
+      <c r="G18" s="15">
+        <v>15903975</v>
+      </c>
+      <c r="H18" s="15">
+        <v>14930452</v>
+      </c>
+      <c r="I18" s="15">
+        <v>26464198</v>
+      </c>
+      <c r="J18" s="15">
         <v>37863941</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>37155274</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>44630110</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>42192163</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>33382904</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2984107</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>842995</v>
+      </c>
+      <c r="J19" s="11">
         <v>3769597</v>
       </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
+      <c r="K19" s="11">
+        <v>3838634</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
         <v>2640826</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>5928530</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-13447</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-2715195</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-243601</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-842995</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-3769597</v>
+      </c>
+      <c r="J20" s="9">
         <v>-3838634</v>
       </c>
-      <c r="F20" s="9">
-        <v>-6027088</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="K20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="9">
         <v>-2640826</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-5928530</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-4993370</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>7921119</v>
+      </c>
+      <c r="F21" s="13">
+        <v>14466354</v>
+      </c>
+      <c r="G21" s="13">
+        <v>15660374</v>
+      </c>
+      <c r="H21" s="13">
+        <v>14087457</v>
+      </c>
+      <c r="I21" s="13">
+        <v>26496392</v>
+      </c>
+      <c r="J21" s="13">
         <v>37794904</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>31128186</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>41989284</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>48770181</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>34318064</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1146,30 +1396,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>7921119</v>
+      </c>
+      <c r="F23" s="13">
+        <v>14466354</v>
+      </c>
+      <c r="G23" s="13">
+        <v>15660374</v>
+      </c>
+      <c r="H23" s="13">
+        <v>14087457</v>
+      </c>
+      <c r="I23" s="13">
+        <v>26496392</v>
+      </c>
+      <c r="J23" s="13">
         <v>37794904</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>31128186</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>41989284</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>48770181</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>34318064</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1178,8 +1458,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1188,8 +1473,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1198,10 +1488,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1220,8 +1515,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1230,133 +1540,213 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>26</v>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>26</v>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
@@ -1374,58 +1764,103 @@
       <c r="I34" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>26</v>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -1444,8 +1879,23 @@
       <c r="I37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1454,8 +1904,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1464,8 +1919,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1474,10 +1934,15 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1496,8 +1961,23 @@
       <c r="I41" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1506,222 +1986,362 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F44" s="11">
+        <v>138330</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>26</v>
+      <c r="E45" s="9">
+        <v>88387200</v>
+      </c>
+      <c r="F45" s="9">
+        <v>85536000</v>
+      </c>
+      <c r="G45" s="9">
+        <v>85536000</v>
+      </c>
+      <c r="H45" s="9">
+        <v>88387200</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>26</v>
+      <c r="E46" s="11">
+        <v>14788648</v>
+      </c>
+      <c r="F46" s="11">
+        <v>6009583</v>
+      </c>
+      <c r="G46" s="11">
+        <v>7028366</v>
+      </c>
+      <c r="H46" s="11">
+        <v>4333935</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G47" s="9">
+        <v>263123</v>
+      </c>
+      <c r="H47" s="9">
+        <v>138824</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>346476966</v>
+      </c>
+      <c r="F48" s="11">
+        <v>383715657</v>
+      </c>
+      <c r="G48" s="11">
+        <v>347957418</v>
+      </c>
+      <c r="H48" s="11">
+        <v>391224041</v>
+      </c>
+      <c r="I48" s="11">
+        <v>381556607</v>
+      </c>
+      <c r="J48" s="11">
         <v>351744448</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>304135529</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>394015801</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>386839449</v>
       </c>
-      <c r="I48" s="11">
+      <c r="N48" s="11">
         <v>341198504</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>26</v>
+      <c r="E50" s="11">
+        <v>448309</v>
+      </c>
+      <c r="F50" s="11">
+        <v>409512</v>
+      </c>
+      <c r="G50" s="11">
+        <v>444081</v>
+      </c>
+      <c r="H50" s="11">
+        <v>429172</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
+        <v>450101123</v>
+      </c>
+      <c r="F51" s="15">
+        <v>475809082</v>
+      </c>
+      <c r="G51" s="15">
+        <v>441228988</v>
+      </c>
+      <c r="H51" s="15">
+        <v>484513172</v>
+      </c>
+      <c r="I51" s="15">
+        <v>381556607</v>
+      </c>
+      <c r="J51" s="15">
         <v>351744448</v>
       </c>
-      <c r="F51" s="15">
+      <c r="K51" s="15">
         <v>304135529</v>
       </c>
-      <c r="G51" s="15">
+      <c r="L51" s="15">
         <v>394015801</v>
       </c>
-      <c r="H51" s="15">
+      <c r="M51" s="15">
         <v>386839449</v>
       </c>
-      <c r="I51" s="15">
+      <c r="N51" s="15">
         <v>341198504</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1730,8 +2350,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1740,8 +2365,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1750,10 +2380,15 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1772,8 +2407,23 @@
       <c r="I55" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1782,222 +2432,362 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F58" s="11">
+        <v>138330</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>26</v>
+      <c r="E59" s="9">
+        <v>88387200</v>
+      </c>
+      <c r="F59" s="9">
+        <v>85536000</v>
+      </c>
+      <c r="G59" s="9">
+        <v>85536000</v>
+      </c>
+      <c r="H59" s="9">
+        <v>88387200</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>26</v>
+      <c r="E60" s="11">
+        <v>14788648</v>
+      </c>
+      <c r="F60" s="11">
+        <v>6009583</v>
+      </c>
+      <c r="G60" s="11">
+        <v>7028366</v>
+      </c>
+      <c r="H60" s="11">
+        <v>4333935</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G61" s="9">
+        <v>263123</v>
+      </c>
+      <c r="H61" s="9">
+        <v>138824</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
+        <v>346476966</v>
+      </c>
+      <c r="F62" s="11">
+        <v>383715657</v>
+      </c>
+      <c r="G62" s="11">
+        <v>347957418</v>
+      </c>
+      <c r="H62" s="11">
+        <v>391224041</v>
+      </c>
+      <c r="I62" s="11">
+        <v>381556607</v>
+      </c>
+      <c r="J62" s="11">
         <v>351744448</v>
       </c>
-      <c r="F62" s="11">
+      <c r="K62" s="11">
         <v>304135529</v>
       </c>
-      <c r="G62" s="11">
+      <c r="L62" s="11">
         <v>394015801</v>
       </c>
-      <c r="H62" s="11">
+      <c r="M62" s="11">
         <v>386839449</v>
       </c>
-      <c r="I62" s="11">
+      <c r="N62" s="11">
         <v>341198504</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>26</v>
+      <c r="E64" s="11">
+        <v>448309</v>
+      </c>
+      <c r="F64" s="11">
+        <v>409512</v>
+      </c>
+      <c r="G64" s="11">
+        <v>444081</v>
+      </c>
+      <c r="H64" s="11">
+        <v>429172</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15">
+        <v>450101123</v>
+      </c>
+      <c r="F65" s="15">
+        <v>475809082</v>
+      </c>
+      <c r="G65" s="15">
+        <v>441228988</v>
+      </c>
+      <c r="H65" s="15">
+        <v>484513172</v>
+      </c>
+      <c r="I65" s="15">
+        <v>381556607</v>
+      </c>
+      <c r="J65" s="15">
         <v>351744448</v>
       </c>
-      <c r="F65" s="15">
+      <c r="K65" s="15">
         <v>304135529</v>
       </c>
-      <c r="G65" s="15">
+      <c r="L65" s="15">
         <v>394015801</v>
       </c>
-      <c r="H65" s="15">
+      <c r="M65" s="15">
         <v>386839449</v>
       </c>
-      <c r="I65" s="15">
+      <c r="N65" s="15">
         <v>341198504</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2006,8 +2796,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2016,8 +2811,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2026,10 +2826,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2048,8 +2853,23 @@
       <c r="I69" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2058,133 +2878,213 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G71" s="9">
+        <v>0</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F72" s="11">
+        <v>0</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>26</v>
+      <c r="E73" s="9">
+        <v>0</v>
+      </c>
+      <c r="F73" s="9">
+        <v>0</v>
+      </c>
+      <c r="G73" s="9">
+        <v>0</v>
+      </c>
+      <c r="H73" s="9">
+        <v>0</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>26</v>
+      <c r="E74" s="11">
+        <v>0</v>
+      </c>
+      <c r="F74" s="11">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11">
+        <v>0</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
-        <v>26</v>
+      <c r="E75" s="9">
+        <v>0</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G75" s="9">
+        <v>0</v>
+      </c>
+      <c r="H75" s="9">
+        <v>0</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
@@ -2202,58 +3102,103 @@
       <c r="I76" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="11">
+        <v>0</v>
+      </c>
+      <c r="K76" s="11">
+        <v>0</v>
+      </c>
+      <c r="L76" s="11">
+        <v>0</v>
+      </c>
+      <c r="M76" s="11">
+        <v>0</v>
+      </c>
+      <c r="N76" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G77" s="9">
+        <v>0</v>
+      </c>
+      <c r="H77" s="9">
+        <v>0</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>26</v>
+      <c r="E78" s="11">
+        <v>0</v>
+      </c>
+      <c r="F78" s="11">
+        <v>0</v>
+      </c>
+      <c r="G78" s="11">
+        <v>0</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
@@ -2272,8 +3217,23 @@
       <c r="I79" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="15">
+        <v>0</v>
+      </c>
+      <c r="K79" s="15">
+        <v>0</v>
+      </c>
+      <c r="L79" s="15">
+        <v>0</v>
+      </c>
+      <c r="M79" s="15">
+        <v>0</v>
+      </c>
+      <c r="N79" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2282,8 +3242,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2292,8 +3257,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2302,10 +3272,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2324,8 +3299,23 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2334,133 +3324,213 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F86" s="11">
+        <v>0</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>26</v>
+      <c r="E87" s="9">
+        <v>0</v>
+      </c>
+      <c r="F87" s="9">
+        <v>0</v>
+      </c>
+      <c r="G87" s="9">
+        <v>0</v>
+      </c>
+      <c r="H87" s="9">
+        <v>0</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C88" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>26</v>
+      <c r="E88" s="11">
+        <v>0</v>
+      </c>
+      <c r="F88" s="11">
+        <v>0</v>
+      </c>
+      <c r="G88" s="11">
+        <v>0</v>
+      </c>
+      <c r="H88" s="11">
+        <v>0</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H89" s="9">
+        <v>0</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
@@ -2478,58 +3548,103 @@
       <c r="I90" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="11">
+        <v>0</v>
+      </c>
+      <c r="K90" s="11">
+        <v>0</v>
+      </c>
+      <c r="L90" s="11">
+        <v>0</v>
+      </c>
+      <c r="M90" s="11">
+        <v>0</v>
+      </c>
+      <c r="N90" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H91" s="9">
+        <v>0</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>26</v>
+      <c r="E92" s="11">
+        <v>0</v>
+      </c>
+      <c r="F92" s="11">
+        <v>0</v>
+      </c>
+      <c r="G92" s="11">
+        <v>0</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
@@ -2548,8 +3663,23 @@
       <c r="I93" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="15">
+        <v>0</v>
+      </c>
+      <c r="K93" s="15">
+        <v>0</v>
+      </c>
+      <c r="L93" s="15">
+        <v>0</v>
+      </c>
+      <c r="M93" s="15">
+        <v>0</v>
+      </c>
+      <c r="N93" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2558,8 +3688,13 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2568,8 +3703,13 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2578,10 +3718,15 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2600,8 +3745,23 @@
       <c r="I97" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2610,222 +3770,362 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G99" s="9">
+        <v>0</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F100" s="11">
+        <v>530357</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K100" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L100" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M100" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N100" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>26</v>
+      <c r="E101" s="9">
+        <v>600495</v>
+      </c>
+      <c r="F101" s="9">
+        <v>428450</v>
+      </c>
+      <c r="G101" s="9">
+        <v>593021</v>
+      </c>
+      <c r="H101" s="9">
+        <v>527760</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K101" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N101" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C102" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D102" s="11"/>
-      <c r="E102" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H102" s="11" t="s">
-        <v>26</v>
+      <c r="E102" s="11">
+        <v>519411</v>
+      </c>
+      <c r="F102" s="11">
+        <v>610670</v>
+      </c>
+      <c r="G102" s="11">
+        <v>816563</v>
+      </c>
+      <c r="H102" s="11">
+        <v>801478</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M102" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N102" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G103" s="9">
+        <v>1202572</v>
+      </c>
+      <c r="H103" s="9">
+        <v>634478</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K103" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M103" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N103" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
+        <v>2835060</v>
+      </c>
+      <c r="F104" s="11">
+        <v>8567195</v>
+      </c>
+      <c r="G104" s="11">
+        <v>9253990</v>
+      </c>
+      <c r="H104" s="11">
+        <v>8337554</v>
+      </c>
+      <c r="I104" s="11">
+        <v>12472313</v>
+      </c>
+      <c r="J104" s="11">
         <v>26993232</v>
       </c>
-      <c r="F104" s="11">
+      <c r="K104" s="11">
         <v>22774849</v>
       </c>
-      <c r="G104" s="11">
+      <c r="L104" s="11">
         <v>19735858</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>23151033</v>
       </c>
-      <c r="I104" s="11">
+      <c r="N104" s="11">
         <v>17090292</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G105" s="9">
+        <v>0</v>
+      </c>
+      <c r="H105" s="9">
+        <v>0</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D106" s="11"/>
-      <c r="E106" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106" s="11" t="s">
-        <v>26</v>
+      <c r="E106" s="11">
+        <v>582568</v>
+      </c>
+      <c r="F106" s="11">
+        <v>393207</v>
+      </c>
+      <c r="G106" s="11">
+        <v>583818</v>
+      </c>
+      <c r="H106" s="11">
+        <v>491231</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
+        <v>4537534</v>
+      </c>
+      <c r="F107" s="15">
+        <v>10529879</v>
+      </c>
+      <c r="G107" s="15">
+        <v>12449964</v>
+      </c>
+      <c r="H107" s="15">
+        <v>10792501</v>
+      </c>
+      <c r="I107" s="15">
+        <v>12472313</v>
+      </c>
+      <c r="J107" s="15">
         <v>26993232</v>
       </c>
-      <c r="F107" s="15">
+      <c r="K107" s="15">
         <v>22774849</v>
       </c>
-      <c r="G107" s="15">
+      <c r="L107" s="15">
         <v>19735858</v>
       </c>
-      <c r="H107" s="15">
+      <c r="M107" s="15">
         <v>23151033</v>
       </c>
-      <c r="I107" s="15">
+      <c r="N107" s="15">
         <v>17090292</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2834,8 +4134,13 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2844,8 +4149,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2854,10 +4164,15 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -2876,8 +4191,23 @@
       <c r="I111" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2886,222 +4216,362 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G113" s="9">
+        <v>0</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M113" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N113" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F114" s="11">
+        <v>530357</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K114" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L114" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M114" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N114" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D115" s="9"/>
-      <c r="E115" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>26</v>
+      <c r="E115" s="9">
+        <v>600495</v>
+      </c>
+      <c r="F115" s="9">
+        <v>428450</v>
+      </c>
+      <c r="G115" s="9">
+        <v>593021</v>
+      </c>
+      <c r="H115" s="9">
+        <v>527760</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K115" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L115" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M115" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N115" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C116" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D116" s="11"/>
-      <c r="E116" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H116" s="11" t="s">
-        <v>26</v>
+      <c r="E116" s="11">
+        <v>519411</v>
+      </c>
+      <c r="F116" s="11">
+        <v>610670</v>
+      </c>
+      <c r="G116" s="11">
+        <v>816563</v>
+      </c>
+      <c r="H116" s="11">
+        <v>801478</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K116" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M116" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N116" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G117" s="9">
+        <v>1202572</v>
+      </c>
+      <c r="H117" s="9">
+        <v>634478</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K117" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M117" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N117" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
+        <v>2835060</v>
+      </c>
+      <c r="F118" s="11">
+        <v>8567195</v>
+      </c>
+      <c r="G118" s="11">
+        <v>9253990</v>
+      </c>
+      <c r="H118" s="11">
+        <v>8337554</v>
+      </c>
+      <c r="I118" s="11">
+        <v>12472313</v>
+      </c>
+      <c r="J118" s="11">
         <v>26993232</v>
       </c>
-      <c r="F118" s="11">
+      <c r="K118" s="11">
         <v>22774849</v>
       </c>
-      <c r="G118" s="11">
+      <c r="L118" s="11">
         <v>19735858</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>23151033</v>
       </c>
-      <c r="I118" s="11">
+      <c r="N118" s="11">
         <v>17090292</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G119" s="9">
+        <v>0</v>
+      </c>
+      <c r="H119" s="9">
+        <v>0</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N119" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D120" s="11"/>
-      <c r="E120" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>26</v>
+      <c r="E120" s="11">
+        <v>582568</v>
+      </c>
+      <c r="F120" s="11">
+        <v>393207</v>
+      </c>
+      <c r="G120" s="11">
+        <v>583818</v>
+      </c>
+      <c r="H120" s="11">
+        <v>491231</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M120" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N120" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
+        <v>4537534</v>
+      </c>
+      <c r="F121" s="15">
+        <v>10529879</v>
+      </c>
+      <c r="G121" s="15">
+        <v>12449964</v>
+      </c>
+      <c r="H121" s="15">
+        <v>10792501</v>
+      </c>
+      <c r="I121" s="15">
+        <v>12472313</v>
+      </c>
+      <c r="J121" s="15">
         <v>26993232</v>
       </c>
-      <c r="F121" s="15">
+      <c r="K121" s="15">
         <v>22774849</v>
       </c>
-      <c r="G121" s="15">
+      <c r="L121" s="15">
         <v>19735858</v>
       </c>
-      <c r="H121" s="15">
+      <c r="M121" s="15">
         <v>23151033</v>
       </c>
-      <c r="I121" s="15">
+      <c r="N121" s="15">
         <v>17090292</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3110,8 +4580,13 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3120,8 +4595,13 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3130,10 +4610,15 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3152,8 +4637,23 @@
       <c r="I125" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3162,133 +4662,213 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G127" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G127" s="9">
+        <v>0</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L127" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M127" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N127" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F128" s="11">
+        <v>0</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K128" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L128" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M128" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N128" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D129" s="9"/>
-      <c r="E129" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F129" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H129" s="9" t="s">
-        <v>26</v>
+      <c r="E129" s="9">
+        <v>0</v>
+      </c>
+      <c r="F129" s="9">
+        <v>0</v>
+      </c>
+      <c r="G129" s="9">
+        <v>0</v>
+      </c>
+      <c r="H129" s="9">
+        <v>0</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K129" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L129" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M129" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N129" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C130" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C130" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D130" s="11"/>
-      <c r="E130" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G130" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H130" s="11" t="s">
-        <v>26</v>
+      <c r="E130" s="11">
+        <v>0</v>
+      </c>
+      <c r="F130" s="11">
+        <v>0</v>
+      </c>
+      <c r="G130" s="11">
+        <v>0</v>
+      </c>
+      <c r="H130" s="11">
+        <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K130" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L130" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M130" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N130" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D131" s="9"/>
-      <c r="E131" s="9" t="s">
-        <v>26</v>
+      <c r="E131" s="9">
+        <v>0</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G131" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G131" s="9">
+        <v>0</v>
+      </c>
+      <c r="H131" s="9">
+        <v>0</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K131" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L131" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M131" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N131" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
@@ -3306,58 +4886,103 @@
       <c r="I132" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="11">
+        <v>0</v>
+      </c>
+      <c r="K132" s="11">
+        <v>0</v>
+      </c>
+      <c r="L132" s="11">
+        <v>0</v>
+      </c>
+      <c r="M132" s="11">
+        <v>0</v>
+      </c>
+      <c r="N132" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H133" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G133" s="9">
+        <v>0</v>
+      </c>
+      <c r="H133" s="9">
+        <v>0</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L133" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M133" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N133" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D134" s="11"/>
-      <c r="E134" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F134" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G134" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H134" s="11" t="s">
-        <v>26</v>
+      <c r="E134" s="11">
+        <v>0</v>
+      </c>
+      <c r="F134" s="11">
+        <v>0</v>
+      </c>
+      <c r="G134" s="11">
+        <v>0</v>
+      </c>
+      <c r="H134" s="11">
+        <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K134" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L134" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M134" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N134" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
@@ -3376,8 +5001,23 @@
       <c r="I135" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="15">
+        <v>0</v>
+      </c>
+      <c r="K135" s="15">
+        <v>0</v>
+      </c>
+      <c r="L135" s="15">
+        <v>0</v>
+      </c>
+      <c r="M135" s="15">
+        <v>0</v>
+      </c>
+      <c r="N135" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3386,8 +5026,13 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3396,8 +5041,13 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3406,10 +5056,15 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -3428,8 +5083,23 @@
       <c r="I139" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N139" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3438,152 +5108,247 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F141" s="9">
+        <v>3833998</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K141" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L141" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M141" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N141" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D142" s="11"/>
-      <c r="E142" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H142" s="11" t="s">
-        <v>26</v>
+      <c r="E142" s="11">
+        <v>6794</v>
+      </c>
+      <c r="F142" s="11">
+        <v>5009</v>
+      </c>
+      <c r="G142" s="11">
+        <v>6933</v>
+      </c>
+      <c r="H142" s="11">
+        <v>5971</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J142" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K142" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L142" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M142" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N142" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D143" s="9"/>
-      <c r="E143" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F143" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G143" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H143" s="9" t="s">
-        <v>26</v>
+      <c r="E143" s="9">
+        <v>35122</v>
+      </c>
+      <c r="F143" s="9">
+        <v>101616</v>
+      </c>
+      <c r="G143" s="9">
+        <v>116181</v>
+      </c>
+      <c r="H143" s="9">
+        <v>184931</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K143" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L143" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M143" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N143" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G144" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H144" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G144" s="11">
+        <v>4570380</v>
+      </c>
+      <c r="H144" s="11">
+        <v>4570377</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J144" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K144" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L144" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M144" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N144" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
+        <v>8183</v>
+      </c>
+      <c r="F145" s="9">
+        <v>22327</v>
+      </c>
+      <c r="G145" s="9">
+        <v>26595</v>
+      </c>
+      <c r="H145" s="9">
+        <v>21311</v>
+      </c>
+      <c r="I145" s="9">
+        <v>32688</v>
+      </c>
+      <c r="J145" s="9">
         <v>76741</v>
       </c>
-      <c r="F145" s="9">
+      <c r="K145" s="9">
         <v>74884</v>
       </c>
-      <c r="G145" s="9">
+      <c r="L145" s="9">
         <v>50089</v>
       </c>
-      <c r="H145" s="9">
+      <c r="M145" s="9">
         <v>59847</v>
       </c>
-      <c r="I145" s="9">
+      <c r="N145" s="9">
         <v>50089</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D146" s="11"/>
-      <c r="E146" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F146" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H146" s="11" t="s">
-        <v>26</v>
+      <c r="E146" s="11">
+        <v>1299479</v>
+      </c>
+      <c r="F146" s="11">
+        <v>960184</v>
+      </c>
+      <c r="G146" s="11">
+        <v>1314666</v>
+      </c>
+      <c r="H146" s="11">
+        <v>1144602</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J146" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K146" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L146" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M146" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N146" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3592,8 +5357,13 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3602,8 +5372,13 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3612,10 +5387,15 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -3634,8 +5414,23 @@
       <c r="I150" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M150" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N150" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3644,152 +5439,247 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F152" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F152" s="9">
+        <v>3833998</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K152" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L152" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M152" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N152" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D153" s="11"/>
-      <c r="E153" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F153" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H153" s="11" t="s">
-        <v>26</v>
+      <c r="E153" s="11">
+        <v>6794</v>
+      </c>
+      <c r="F153" s="11">
+        <v>5009</v>
+      </c>
+      <c r="G153" s="11">
+        <v>6933</v>
+      </c>
+      <c r="H153" s="11">
+        <v>5971</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J153" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K153" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L153" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M153" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N153" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D154" s="9"/>
-      <c r="E154" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F154" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G154" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H154" s="9" t="s">
-        <v>26</v>
+      <c r="E154" s="9">
+        <v>35122</v>
+      </c>
+      <c r="F154" s="9">
+        <v>101616</v>
+      </c>
+      <c r="G154" s="9">
+        <v>116181</v>
+      </c>
+      <c r="H154" s="9">
+        <v>184931</v>
       </c>
       <c r="I154" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J154" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K154" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L154" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M154" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N154" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H155" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G155" s="11">
+        <v>4570380</v>
+      </c>
+      <c r="H155" s="11">
+        <v>4570377</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J155" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K155" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L155" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M155" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N155" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9">
+        <v>8183</v>
+      </c>
+      <c r="F156" s="9">
+        <v>22327</v>
+      </c>
+      <c r="G156" s="9">
+        <v>26595</v>
+      </c>
+      <c r="H156" s="9">
+        <v>21311</v>
+      </c>
+      <c r="I156" s="9">
+        <v>32688</v>
+      </c>
+      <c r="J156" s="9">
         <v>76741</v>
       </c>
-      <c r="F156" s="9">
+      <c r="K156" s="9">
         <v>74884</v>
       </c>
-      <c r="G156" s="9">
+      <c r="L156" s="9">
         <v>50089</v>
       </c>
-      <c r="H156" s="9">
+      <c r="M156" s="9">
         <v>59847</v>
       </c>
-      <c r="I156" s="9">
+      <c r="N156" s="9">
         <v>50089</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D157" s="11"/>
-      <c r="E157" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F157" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G157" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H157" s="11" t="s">
-        <v>26</v>
+      <c r="E157" s="11">
+        <v>1299479</v>
+      </c>
+      <c r="F157" s="11">
+        <v>960184</v>
+      </c>
+      <c r="G157" s="11">
+        <v>1314666</v>
+      </c>
+      <c r="H157" s="11">
+        <v>1144602</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J157" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K157" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L157" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M157" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N157" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3798,8 +5688,13 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -3808,8 +5703,13 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3818,10 +5718,15 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -3840,8 +5745,23 @@
       <c r="I161" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J161" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K161" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L161" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M161" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N161" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3850,10 +5770,15 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -3872,10 +5797,25 @@
       <c r="I163" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="9">
+        <v>0</v>
+      </c>
+      <c r="K163" s="9">
+        <v>0</v>
+      </c>
+      <c r="L163" s="9">
+        <v>0</v>
+      </c>
+      <c r="M163" s="9">
+        <v>0</v>
+      </c>
+      <c r="N163" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -3894,10 +5834,25 @@
       <c r="I164" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="11">
+        <v>0</v>
+      </c>
+      <c r="K164" s="11">
+        <v>0</v>
+      </c>
+      <c r="L164" s="11">
+        <v>0</v>
+      </c>
+      <c r="M164" s="11">
+        <v>0</v>
+      </c>
+      <c r="N164" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -3916,10 +5871,25 @@
       <c r="I165" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="9">
+        <v>0</v>
+      </c>
+      <c r="K165" s="9">
+        <v>0</v>
+      </c>
+      <c r="L165" s="9">
+        <v>0</v>
+      </c>
+      <c r="M165" s="9">
+        <v>0</v>
+      </c>
+      <c r="N165" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -3938,98 +5908,173 @@
       <c r="I166" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J166" s="11">
+        <v>0</v>
+      </c>
+      <c r="K166" s="11">
+        <v>0</v>
+      </c>
+      <c r="L166" s="11">
+        <v>0</v>
+      </c>
+      <c r="M166" s="11">
+        <v>0</v>
+      </c>
+      <c r="N166" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="E167" s="9">
+        <v>101310</v>
+      </c>
+      <c r="F167" s="9">
+        <v>68935</v>
+      </c>
+      <c r="G167" s="9">
+        <v>102037</v>
+      </c>
+      <c r="H167" s="9">
+        <v>66567</v>
+      </c>
+      <c r="I167" s="9">
+        <v>124031</v>
+      </c>
+      <c r="J167" s="9">
         <v>58907</v>
       </c>
-      <c r="F167" s="9">
+      <c r="K167" s="9">
         <v>677439</v>
       </c>
-      <c r="G167" s="9">
+      <c r="L167" s="9">
         <v>279608</v>
       </c>
-      <c r="H167" s="9">
+      <c r="M167" s="9">
         <v>-283319</v>
       </c>
-      <c r="I167" s="9">
+      <c r="N167" s="9">
         <v>95691</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
       <c r="E168" s="11">
+        <v>7587989</v>
+      </c>
+      <c r="F168" s="11">
+        <v>459349</v>
+      </c>
+      <c r="G168" s="11">
+        <v>445198</v>
+      </c>
+      <c r="H168" s="11">
+        <v>1242027</v>
+      </c>
+      <c r="I168" s="11">
+        <v>16615309</v>
+      </c>
+      <c r="J168" s="11">
         <v>7794618</v>
       </c>
-      <c r="F168" s="11">
+      <c r="K168" s="11">
         <v>-1276757</v>
       </c>
-      <c r="G168" s="11">
+      <c r="L168" s="11">
         <v>3617140</v>
       </c>
-      <c r="H168" s="11">
+      <c r="M168" s="11">
         <v>4744775</v>
       </c>
-      <c r="I168" s="11">
+      <c r="N168" s="11">
         <v>3672861</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9">
+        <v>663807</v>
+      </c>
+      <c r="F169" s="9">
+        <v>640631</v>
+      </c>
+      <c r="G169" s="9">
+        <v>645019</v>
+      </c>
+      <c r="H169" s="9">
+        <v>671103</v>
+      </c>
+      <c r="I169" s="9">
+        <v>673228</v>
+      </c>
+      <c r="J169" s="9">
         <v>660590</v>
       </c>
-      <c r="F169" s="9">
+      <c r="K169" s="9">
         <v>653643</v>
       </c>
-      <c r="G169" s="9">
+      <c r="L169" s="9">
         <v>420177</v>
       </c>
-      <c r="H169" s="9">
+      <c r="M169" s="9">
         <v>591881</v>
       </c>
-      <c r="I169" s="9">
+      <c r="N169" s="9">
         <v>559829</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11">
+        <v>618861</v>
+      </c>
+      <c r="F170" s="11">
+        <v>462553</v>
+      </c>
+      <c r="G170" s="11">
+        <v>501117</v>
+      </c>
+      <c r="H170" s="11">
+        <v>497040</v>
+      </c>
+      <c r="I170" s="11">
+        <v>1555470</v>
+      </c>
+      <c r="J170" s="11">
         <v>594575</v>
       </c>
-      <c r="F170" s="11">
+      <c r="K170" s="11">
         <v>782629</v>
       </c>
-      <c r="G170" s="11">
+      <c r="L170" s="11">
         <v>672801</v>
       </c>
-      <c r="H170" s="11">
+      <c r="M170" s="11">
         <v>1228045</v>
       </c>
-      <c r="I170" s="11">
+      <c r="N170" s="11">
         <v>1185714</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
@@ -4048,52 +6093,97 @@
       <c r="I171" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J171" s="9">
+        <v>0</v>
+      </c>
+      <c r="K171" s="9">
+        <v>0</v>
+      </c>
+      <c r="L171" s="9">
+        <v>0</v>
+      </c>
+      <c r="M171" s="9">
+        <v>0</v>
+      </c>
+      <c r="N171" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11">
+        <v>84402</v>
+      </c>
+      <c r="F172" s="11">
+        <v>1697946</v>
+      </c>
+      <c r="G172" s="11">
+        <v>2080123</v>
+      </c>
+      <c r="H172" s="11">
+        <v>1255319</v>
+      </c>
+      <c r="I172" s="11">
+        <v>1550381</v>
+      </c>
+      <c r="J172" s="11">
         <v>1429176</v>
       </c>
-      <c r="F172" s="11">
+      <c r="K172" s="11">
         <v>13409450</v>
       </c>
-      <c r="G172" s="11">
+      <c r="L172" s="11">
         <v>19433475</v>
       </c>
-      <c r="H172" s="11">
+      <c r="M172" s="11">
         <v>11890445</v>
       </c>
-      <c r="I172" s="11">
+      <c r="N172" s="11">
         <v>10097636</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
       <c r="E173" s="15">
+        <v>9056369</v>
+      </c>
+      <c r="F173" s="15">
+        <v>3329414</v>
+      </c>
+      <c r="G173" s="15">
+        <v>3773494</v>
+      </c>
+      <c r="H173" s="15">
+        <v>3732056</v>
+      </c>
+      <c r="I173" s="15">
+        <v>20518419</v>
+      </c>
+      <c r="J173" s="15">
         <v>10537866</v>
       </c>
-      <c r="F173" s="15">
+      <c r="K173" s="15">
         <v>14246404</v>
       </c>
-      <c r="G173" s="15">
+      <c r="L173" s="15">
         <v>24423201</v>
       </c>
-      <c r="H173" s="15">
+      <c r="M173" s="15">
         <v>18171827</v>
       </c>
-      <c r="I173" s="15">
+      <c r="N173" s="15">
         <v>15611731</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4102,8 +6192,13 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4112,8 +6207,13 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4122,10 +6222,15 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
@@ -4134,8 +6239,13 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4144,13 +6254,18 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
@@ -4158,13 +6273,18 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11"/>
@@ -4172,13 +6292,18 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
@@ -4186,13 +6311,18 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
@@ -4200,101 +6330,106 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>

--- a/database/industries/urea/shapdis/cost/quarterly.xlsx
+++ b/database/industries/urea/shapdis/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\shapdis\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\shapdis\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECEB7A2-BBCE-45EC-BC53-A3DF9678560D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FFC43C-48DA-49A6-98E9-4B4C9B1EC6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل چهارم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل اول منتهی به 1399/09</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
     <t>فصل اول منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -97,25 +97,25 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>بهای تمام شده کالای فروش رفته</t>
+  </si>
+  <si>
+    <t>بهای تمام شده خدمات ارایه شده</t>
+  </si>
+  <si>
+    <t>جمع بهای تمام شده</t>
+  </si>
+  <si>
+    <t>مقدار موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>مواد اولیه وارداتی</t>
+  </si>
+  <si>
+    <t>میلیون ریال</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>بهای تمام شده کالای فروش رفته</t>
-  </si>
-  <si>
-    <t>بهای تمام شده خدمات ارایه شده</t>
-  </si>
-  <si>
-    <t>جمع بهای تمام شده</t>
-  </si>
-  <si>
-    <t>مقدار موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>مواد اولیه وارداتی</t>
-  </si>
-  <si>
-    <t>میلیون ریال</t>
   </si>
   <si>
     <t>برق اکتیو</t>
@@ -761,12 +761,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -781,7 +781,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -798,7 +798,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -815,7 +815,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -830,7 +830,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -864,7 +864,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -879,7 +879,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -916,7 +916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -931,229 +931,229 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>-1408383</v>
+        <v>10529879</v>
       </c>
       <c r="F10" s="9">
-        <v>10529879</v>
+        <v>11919607</v>
       </c>
       <c r="G10" s="9">
-        <v>11919607</v>
+        <v>10792501</v>
       </c>
       <c r="H10" s="9">
-        <v>10792501</v>
+        <v>5389065</v>
       </c>
       <c r="I10" s="9">
-        <v>5389065</v>
+        <v>26993232</v>
       </c>
       <c r="J10" s="9">
-        <v>26993232</v>
+        <v>22774849</v>
       </c>
       <c r="K10" s="9">
-        <v>22774849</v>
+        <v>19735858</v>
       </c>
       <c r="L10" s="9">
-        <v>19735858</v>
+        <v>23151033</v>
       </c>
       <c r="M10" s="9">
-        <v>23151033</v>
+        <v>17090292</v>
       </c>
       <c r="N10" s="9">
-        <v>17090292</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13845624</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>334316</v>
+        <v>338149</v>
       </c>
       <c r="F11" s="11">
-        <v>338149</v>
+        <v>331558</v>
       </c>
       <c r="G11" s="11">
-        <v>331558</v>
+        <v>445963</v>
       </c>
       <c r="H11" s="11">
-        <v>445963</v>
+        <v>659122</v>
       </c>
       <c r="I11" s="11">
-        <v>659122</v>
+        <v>502672</v>
       </c>
       <c r="J11" s="11">
-        <v>502672</v>
+        <v>478995</v>
       </c>
       <c r="K11" s="11">
-        <v>478995</v>
+        <v>540973</v>
       </c>
       <c r="L11" s="11">
-        <v>540973</v>
+        <v>939272</v>
       </c>
       <c r="M11" s="11">
-        <v>939272</v>
+        <v>822676</v>
       </c>
       <c r="N11" s="11">
-        <v>822676</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>690550</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>9056369</v>
+        <v>3329414</v>
       </c>
       <c r="F12" s="9">
-        <v>3329414</v>
+        <v>3773494</v>
       </c>
       <c r="G12" s="9">
-        <v>3773494</v>
+        <v>3732056</v>
       </c>
       <c r="H12" s="9">
-        <v>3732056</v>
+        <v>20518419</v>
       </c>
       <c r="I12" s="9">
-        <v>20518419</v>
+        <v>10537866</v>
       </c>
       <c r="J12" s="9">
-        <v>10537866</v>
+        <v>14246404</v>
       </c>
       <c r="K12" s="9">
-        <v>14246404</v>
+        <v>24423201</v>
       </c>
       <c r="L12" s="9">
-        <v>24423201</v>
+        <v>18171827</v>
       </c>
       <c r="M12" s="9">
-        <v>18171827</v>
+        <v>15611731</v>
       </c>
       <c r="N12" s="9">
-        <v>15611731</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16777598</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>7982302</v>
+        <v>14197442</v>
       </c>
       <c r="F13" s="13">
-        <v>14197442</v>
+        <v>16024659</v>
       </c>
       <c r="G13" s="13">
-        <v>16024659</v>
+        <v>14970520</v>
       </c>
       <c r="H13" s="13">
-        <v>14970520</v>
+        <v>26566606</v>
       </c>
       <c r="I13" s="13">
-        <v>26566606</v>
+        <v>38033770</v>
       </c>
       <c r="J13" s="13">
-        <v>38033770</v>
+        <v>37500248</v>
       </c>
       <c r="K13" s="13">
-        <v>37500248</v>
+        <v>44700032</v>
       </c>
       <c r="L13" s="13">
-        <v>44700032</v>
+        <v>42262132</v>
       </c>
       <c r="M13" s="13">
-        <v>42262132</v>
+        <v>33524699</v>
       </c>
       <c r="N13" s="13">
-        <v>33524699</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31313772</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>-47736</v>
+        <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>-120684</v>
       </c>
       <c r="G14" s="9">
-        <v>-120684</v>
+        <v>-40068</v>
       </c>
       <c r="H14" s="9">
-        <v>-40068</v>
+        <v>-102408</v>
       </c>
       <c r="I14" s="9">
-        <v>-102408</v>
+        <v>-169829</v>
       </c>
       <c r="J14" s="9">
-        <v>-169829</v>
+        <v>-344974</v>
       </c>
       <c r="K14" s="9">
-        <v>-344974</v>
+        <v>-69922</v>
       </c>
       <c r="L14" s="9">
-        <v>-69922</v>
+        <v>-69969</v>
       </c>
       <c r="M14" s="9">
-        <v>-69969</v>
+        <v>-141795</v>
       </c>
       <c r="N14" s="9">
-        <v>-141795</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-649835</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>7934566</v>
+        <v>14197442</v>
       </c>
       <c r="F15" s="13">
-        <v>14197442</v>
+        <v>15903975</v>
       </c>
       <c r="G15" s="13">
-        <v>15903975</v>
+        <v>14930452</v>
       </c>
       <c r="H15" s="13">
-        <v>14930452</v>
+        <v>26464198</v>
       </c>
       <c r="I15" s="13">
-        <v>26464198</v>
+        <v>37863941</v>
       </c>
       <c r="J15" s="13">
-        <v>37863941</v>
+        <v>37155274</v>
       </c>
       <c r="K15" s="13">
-        <v>37155274</v>
+        <v>44630110</v>
       </c>
       <c r="L15" s="13">
-        <v>44630110</v>
+        <v>42192163</v>
       </c>
       <c r="M15" s="13">
-        <v>42192163</v>
+        <v>33382904</v>
       </c>
       <c r="N15" s="13">
-        <v>33382904</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30663937</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1227,157 +1227,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>7934566</v>
+        <v>14197442</v>
       </c>
       <c r="F18" s="15">
-        <v>14197442</v>
+        <v>15903975</v>
       </c>
       <c r="G18" s="15">
-        <v>15903975</v>
+        <v>14930452</v>
       </c>
       <c r="H18" s="15">
-        <v>14930452</v>
+        <v>26464198</v>
       </c>
       <c r="I18" s="15">
-        <v>26464198</v>
+        <v>37863941</v>
       </c>
       <c r="J18" s="15">
-        <v>37863941</v>
+        <v>37155274</v>
       </c>
       <c r="K18" s="15">
-        <v>37155274</v>
+        <v>44630110</v>
       </c>
       <c r="L18" s="15">
-        <v>44630110</v>
+        <v>42192163</v>
       </c>
       <c r="M18" s="15">
-        <v>42192163</v>
+        <v>33382904</v>
       </c>
       <c r="N18" s="15">
-        <v>33382904</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30663937</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>2984107</v>
       </c>
       <c r="F19" s="11">
-        <v>2984107</v>
+        <v>0</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
       </c>
       <c r="H19" s="11">
-        <v>0</v>
+        <v>3801791</v>
       </c>
       <c r="I19" s="11">
-        <v>842995</v>
+        <v>3769597</v>
       </c>
       <c r="J19" s="11">
-        <v>3769597</v>
+        <v>3838634</v>
       </c>
       <c r="K19" s="11">
-        <v>3838634</v>
+        <v>9865722</v>
       </c>
       <c r="L19" s="11">
-        <v>0</v>
+        <v>12506548</v>
       </c>
       <c r="M19" s="11">
-        <v>2640826</v>
+        <v>5928530</v>
       </c>
       <c r="N19" s="11">
-        <v>5928530</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4993370</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-13447</v>
+        <v>-2715195</v>
       </c>
       <c r="F20" s="9">
-        <v>-2715195</v>
+        <v>-243601</v>
       </c>
       <c r="G20" s="9">
-        <v>-243601</v>
+        <v>-842995</v>
       </c>
       <c r="H20" s="9">
-        <v>-842995</v>
+        <v>-3769597</v>
       </c>
       <c r="I20" s="9">
-        <v>-3769597</v>
+        <v>-3838634</v>
       </c>
       <c r="J20" s="9">
-        <v>-3838634</v>
-      </c>
-      <c r="K20" s="9" t="s">
+        <v>-9865722</v>
+      </c>
+      <c r="K20" s="9">
+        <v>-12506548</v>
+      </c>
+      <c r="L20" s="9">
+        <v>-5928530</v>
+      </c>
+      <c r="M20" s="9">
+        <v>-4993370</v>
+      </c>
+      <c r="N20" s="9">
+        <v>-4772040</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="L20" s="9">
-        <v>-2640826</v>
-      </c>
-      <c r="M20" s="9">
-        <v>-5928530</v>
-      </c>
-      <c r="N20" s="9">
-        <v>-4993370</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>7921119</v>
+        <v>14466354</v>
       </c>
       <c r="F21" s="13">
-        <v>14466354</v>
+        <v>15660374</v>
       </c>
       <c r="G21" s="13">
-        <v>15660374</v>
+        <v>14087457</v>
       </c>
       <c r="H21" s="13">
-        <v>14087457</v>
+        <v>26496392</v>
       </c>
       <c r="I21" s="13">
-        <v>26496392</v>
+        <v>37794904</v>
       </c>
       <c r="J21" s="13">
-        <v>37794904</v>
+        <v>31128186</v>
       </c>
       <c r="K21" s="13">
-        <v>31128186</v>
+        <v>41989284</v>
       </c>
       <c r="L21" s="13">
-        <v>41989284</v>
+        <v>48770181</v>
       </c>
       <c r="M21" s="13">
-        <v>48770181</v>
+        <v>34318064</v>
       </c>
       <c r="N21" s="13">
-        <v>34318064</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30885267</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1412,44 +1412,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>7921119</v>
+        <v>14466354</v>
       </c>
       <c r="F23" s="13">
-        <v>14466354</v>
+        <v>15660374</v>
       </c>
       <c r="G23" s="13">
-        <v>15660374</v>
+        <v>14087457</v>
       </c>
       <c r="H23" s="13">
-        <v>14087457</v>
+        <v>26496392</v>
       </c>
       <c r="I23" s="13">
-        <v>26496392</v>
+        <v>37794904</v>
       </c>
       <c r="J23" s="13">
-        <v>37794904</v>
+        <v>31128186</v>
       </c>
       <c r="K23" s="13">
-        <v>31128186</v>
+        <v>41989284</v>
       </c>
       <c r="L23" s="13">
-        <v>41989284</v>
+        <v>48770181</v>
       </c>
       <c r="M23" s="13">
-        <v>48770181</v>
+        <v>34318064</v>
       </c>
       <c r="N23" s="13">
-        <v>34318064</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30885267</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1464,7 +1464,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1479,7 +1479,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1494,9 +1494,9 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1531,7 +1531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1546,46 +1546,46 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1593,38 +1593,38 @@
         <v>33</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="11">
-        <v>0</v>
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1641,29 +1641,29 @@
       <c r="G31" s="9">
         <v>0</v>
       </c>
-      <c r="H31" s="9">
-        <v>0</v>
+      <c r="H31" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>36</v>
       </c>
@@ -1680,29 +1680,29 @@
       <c r="G32" s="11">
         <v>0</v>
       </c>
-      <c r="H32" s="11">
-        <v>0</v>
+      <c r="H32" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>38</v>
       </c>
@@ -1711,37 +1711,37 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
@@ -1780,46 +1780,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1836,29 +1836,29 @@
       <c r="G36" s="11">
         <v>0</v>
       </c>
-      <c r="H36" s="11">
-        <v>0</v>
+      <c r="H36" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>17</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1910,7 +1910,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1925,7 +1925,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1940,7 +1940,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>43</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1992,46 +1992,46 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>32</v>
       </c>
@@ -2039,38 +2039,38 @@
         <v>33</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="11">
+      <c r="E44" s="11">
         <v>138330</v>
       </c>
+      <c r="F44" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="G44" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>34</v>
       </c>
@@ -2079,37 +2079,37 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>88387200</v>
+        <v>85536000</v>
       </c>
       <c r="F45" s="9">
         <v>85536000</v>
       </c>
       <c r="G45" s="9">
-        <v>85536000</v>
-      </c>
-      <c r="H45" s="9">
         <v>88387200</v>
       </c>
+      <c r="H45" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>36</v>
       </c>
@@ -2118,37 +2118,37 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>14788648</v>
+        <v>6009583</v>
       </c>
       <c r="F46" s="11">
-        <v>6009583</v>
+        <v>7028366</v>
       </c>
       <c r="G46" s="11">
-        <v>7028366</v>
-      </c>
-      <c r="H46" s="11">
         <v>4333935</v>
       </c>
+      <c r="H46" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I46" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>38</v>
       </c>
@@ -2157,37 +2157,37 @@
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F47" s="9">
+        <v>263123</v>
       </c>
       <c r="G47" s="9">
-        <v>263123</v>
-      </c>
-      <c r="H47" s="9">
         <v>138824</v>
       </c>
+      <c r="H47" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>40</v>
       </c>
@@ -2196,37 +2196,37 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>346476966</v>
+        <v>383715657</v>
       </c>
       <c r="F48" s="11">
-        <v>383715657</v>
+        <v>347957418</v>
       </c>
       <c r="G48" s="11">
-        <v>347957418</v>
+        <v>391224041</v>
       </c>
       <c r="H48" s="11">
-        <v>391224041</v>
+        <v>381556607</v>
       </c>
       <c r="I48" s="11">
-        <v>381556607</v>
+        <v>351744448</v>
       </c>
       <c r="J48" s="11">
-        <v>351744448</v>
+        <v>304135529</v>
       </c>
       <c r="K48" s="11">
-        <v>304135529</v>
+        <v>394015801</v>
       </c>
       <c r="L48" s="11">
-        <v>394015801</v>
+        <v>386839449</v>
       </c>
       <c r="M48" s="11">
-        <v>386839449</v>
+        <v>341198504</v>
       </c>
       <c r="N48" s="11">
-        <v>341198504</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>276420451</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>41</v>
       </c>
@@ -2235,37 +2235,37 @@
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0</v>
       </c>
       <c r="G49" s="9">
         <v>0</v>
       </c>
-      <c r="H49" s="9">
-        <v>0</v>
+      <c r="H49" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>42</v>
       </c>
@@ -2274,74 +2274,74 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>448309</v>
+        <v>409512</v>
       </c>
       <c r="F50" s="11">
-        <v>409512</v>
+        <v>444081</v>
       </c>
       <c r="G50" s="11">
-        <v>444081</v>
-      </c>
-      <c r="H50" s="11">
         <v>429172</v>
       </c>
+      <c r="H50" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I50" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
-        <v>450101123</v>
+        <v>475809082</v>
       </c>
       <c r="F51" s="15">
-        <v>475809082</v>
+        <v>441228988</v>
       </c>
       <c r="G51" s="15">
-        <v>441228988</v>
+        <v>484513172</v>
       </c>
       <c r="H51" s="15">
-        <v>484513172</v>
+        <v>381556607</v>
       </c>
       <c r="I51" s="15">
-        <v>381556607</v>
+        <v>351744448</v>
       </c>
       <c r="J51" s="15">
-        <v>351744448</v>
+        <v>304135529</v>
       </c>
       <c r="K51" s="15">
-        <v>304135529</v>
+        <v>394015801</v>
       </c>
       <c r="L51" s="15">
-        <v>394015801</v>
+        <v>386839449</v>
       </c>
       <c r="M51" s="15">
-        <v>386839449</v>
+        <v>341198504</v>
       </c>
       <c r="N51" s="15">
-        <v>341198504</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>276420451</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2356,7 +2356,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2371,7 +2371,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2386,7 +2386,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>45</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2438,46 +2438,46 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F57" s="9">
+        <v>0</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N57" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>32</v>
       </c>
@@ -2485,38 +2485,38 @@
         <v>33</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" s="11">
+      <c r="E58" s="11">
         <v>138330</v>
       </c>
+      <c r="F58" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="G58" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>34</v>
       </c>
@@ -2525,37 +2525,37 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>88387200</v>
+        <v>85536000</v>
       </c>
       <c r="F59" s="9">
         <v>85536000</v>
       </c>
       <c r="G59" s="9">
-        <v>85536000</v>
-      </c>
-      <c r="H59" s="9">
         <v>88387200</v>
       </c>
+      <c r="H59" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I59" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>36</v>
       </c>
@@ -2564,37 +2564,37 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>14788648</v>
+        <v>6009583</v>
       </c>
       <c r="F60" s="11">
-        <v>6009583</v>
+        <v>7028366</v>
       </c>
       <c r="G60" s="11">
-        <v>7028366</v>
-      </c>
-      <c r="H60" s="11">
         <v>4333935</v>
       </c>
+      <c r="H60" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I60" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>38</v>
       </c>
@@ -2603,37 +2603,37 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F61" s="9">
+        <v>263123</v>
       </c>
       <c r="G61" s="9">
-        <v>263123</v>
-      </c>
-      <c r="H61" s="9">
         <v>138824</v>
       </c>
+      <c r="H61" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>40</v>
       </c>
@@ -2642,37 +2642,37 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>346476966</v>
+        <v>383715657</v>
       </c>
       <c r="F62" s="11">
-        <v>383715657</v>
+        <v>347957418</v>
       </c>
       <c r="G62" s="11">
-        <v>347957418</v>
+        <v>391224041</v>
       </c>
       <c r="H62" s="11">
-        <v>391224041</v>
+        <v>381556607</v>
       </c>
       <c r="I62" s="11">
-        <v>381556607</v>
+        <v>351744448</v>
       </c>
       <c r="J62" s="11">
-        <v>351744448</v>
+        <v>304135529</v>
       </c>
       <c r="K62" s="11">
-        <v>304135529</v>
+        <v>394015801</v>
       </c>
       <c r="L62" s="11">
-        <v>394015801</v>
+        <v>386839449</v>
       </c>
       <c r="M62" s="11">
-        <v>386839449</v>
+        <v>341198504</v>
       </c>
       <c r="N62" s="11">
-        <v>341198504</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>276420451</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>41</v>
       </c>
@@ -2681,37 +2681,37 @@
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F63" s="9">
+        <v>0</v>
       </c>
       <c r="G63" s="9">
         <v>0</v>
       </c>
-      <c r="H63" s="9">
-        <v>0</v>
+      <c r="H63" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>42</v>
       </c>
@@ -2720,74 +2720,74 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>448309</v>
+        <v>409512</v>
       </c>
       <c r="F64" s="11">
-        <v>409512</v>
+        <v>444081</v>
       </c>
       <c r="G64" s="11">
-        <v>444081</v>
-      </c>
-      <c r="H64" s="11">
         <v>429172</v>
       </c>
+      <c r="H64" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I64" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15">
-        <v>450101123</v>
+        <v>475809082</v>
       </c>
       <c r="F65" s="15">
-        <v>475809082</v>
+        <v>441228988</v>
       </c>
       <c r="G65" s="15">
-        <v>441228988</v>
+        <v>484513172</v>
       </c>
       <c r="H65" s="15">
-        <v>484513172</v>
+        <v>381556607</v>
       </c>
       <c r="I65" s="15">
-        <v>381556607</v>
+        <v>351744448</v>
       </c>
       <c r="J65" s="15">
-        <v>351744448</v>
+        <v>304135529</v>
       </c>
       <c r="K65" s="15">
-        <v>304135529</v>
+        <v>394015801</v>
       </c>
       <c r="L65" s="15">
-        <v>394015801</v>
+        <v>386839449</v>
       </c>
       <c r="M65" s="15">
-        <v>386839449</v>
+        <v>341198504</v>
       </c>
       <c r="N65" s="15">
-        <v>341198504</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>276420451</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2802,7 +2802,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2817,7 +2817,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2832,7 +2832,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>46</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2884,46 +2884,46 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F71" s="9">
+        <v>0</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>32</v>
       </c>
@@ -2931,38 +2931,38 @@
         <v>33</v>
       </c>
       <c r="D72" s="11"/>
-      <c r="E72" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F72" s="11">
-        <v>0</v>
+      <c r="E72" s="11">
+        <v>0</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L72" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>34</v>
       </c>
@@ -2979,29 +2979,29 @@
       <c r="G73" s="9">
         <v>0</v>
       </c>
-      <c r="H73" s="9">
-        <v>0</v>
+      <c r="H73" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>36</v>
       </c>
@@ -3018,29 +3018,29 @@
       <c r="G74" s="11">
         <v>0</v>
       </c>
-      <c r="H74" s="11">
-        <v>0</v>
+      <c r="H74" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N74" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>38</v>
       </c>
@@ -3048,38 +3048,38 @@
         <v>39</v>
       </c>
       <c r="D75" s="9"/>
-      <c r="E75" s="9">
-        <v>0</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>25</v>
+      <c r="E75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" s="9">
+        <v>0</v>
       </c>
       <c r="G75" s="9">
         <v>0</v>
       </c>
-      <c r="H75" s="9">
-        <v>0</v>
+      <c r="H75" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>40</v>
       </c>
@@ -3118,46 +3118,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F77" s="9">
+        <v>0</v>
       </c>
       <c r="G77" s="9">
         <v>0</v>
       </c>
-      <c r="H77" s="9">
-        <v>0</v>
+      <c r="H77" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>42</v>
       </c>
@@ -3174,29 +3174,29 @@
       <c r="G78" s="11">
         <v>0</v>
       </c>
-      <c r="H78" s="11">
-        <v>0</v>
+      <c r="H78" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>17</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3248,7 +3248,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3263,7 +3263,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3278,7 +3278,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>47</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3330,90 +3330,90 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F86" s="11">
-        <v>0</v>
+      <c r="E86" s="11">
+        <v>0</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M86" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N86" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
@@ -3425,34 +3425,34 @@
       <c r="G87" s="9">
         <v>0</v>
       </c>
-      <c r="H87" s="9">
-        <v>0</v>
+      <c r="H87" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N87" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
@@ -3464,73 +3464,73 @@
       <c r="G88" s="11">
         <v>0</v>
       </c>
-      <c r="H88" s="11">
-        <v>0</v>
+      <c r="H88" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K88" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L88" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N88" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H89" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G89" s="9">
+        <v>0</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N89" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
@@ -3564,51 +3564,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H91" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G91" s="9">
+        <v>0</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N91" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
@@ -3620,29 +3620,29 @@
       <c r="G92" s="11">
         <v>0</v>
       </c>
-      <c r="H92" s="11">
-        <v>0</v>
+      <c r="H92" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L92" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M92" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N92" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>17</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3694,7 +3694,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3709,7 +3709,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3724,7 +3724,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>48</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3776,356 +3776,356 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G99" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F99" s="9">
+        <v>0</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N99" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D100" s="11"/>
-      <c r="E100" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F100" s="11">
+      <c r="E100" s="11">
         <v>530357</v>
       </c>
+      <c r="F100" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="G100" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J100" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K100" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L100" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M100" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N100" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>600495</v>
+        <v>428450</v>
       </c>
       <c r="F101" s="9">
-        <v>428450</v>
+        <v>593021</v>
       </c>
       <c r="G101" s="9">
-        <v>593021</v>
-      </c>
-      <c r="H101" s="9">
         <v>527760</v>
       </c>
+      <c r="H101" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N101" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>519411</v>
+        <v>610670</v>
       </c>
       <c r="F102" s="11">
-        <v>610670</v>
+        <v>816563</v>
       </c>
       <c r="G102" s="11">
-        <v>816563</v>
-      </c>
-      <c r="H102" s="11">
         <v>801478</v>
       </c>
+      <c r="H102" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I102" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J102" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K102" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L102" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M102" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N102" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F103" s="9">
+        <v>1202572</v>
       </c>
       <c r="G103" s="9">
-        <v>1202572</v>
-      </c>
-      <c r="H103" s="9">
         <v>634478</v>
       </c>
+      <c r="H103" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N103" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>2835060</v>
+        <v>8567195</v>
       </c>
       <c r="F104" s="11">
-        <v>8567195</v>
+        <v>9253990</v>
       </c>
       <c r="G104" s="11">
-        <v>9253990</v>
+        <v>8337554</v>
       </c>
       <c r="H104" s="11">
-        <v>8337554</v>
+        <v>12472313</v>
       </c>
       <c r="I104" s="11">
-        <v>12472313</v>
+        <v>26993232</v>
       </c>
       <c r="J104" s="11">
-        <v>26993232</v>
+        <v>22774849</v>
       </c>
       <c r="K104" s="11">
-        <v>22774849</v>
+        <v>19735858</v>
       </c>
       <c r="L104" s="11">
-        <v>19735858</v>
+        <v>23151033</v>
       </c>
       <c r="M104" s="11">
-        <v>23151033</v>
+        <v>17090292</v>
       </c>
       <c r="N104" s="11">
-        <v>17090292</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13845624</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F105" s="9">
+        <v>0</v>
       </c>
       <c r="G105" s="9">
         <v>0</v>
       </c>
-      <c r="H105" s="9">
-        <v>0</v>
+      <c r="H105" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N105" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>582568</v>
+        <v>393207</v>
       </c>
       <c r="F106" s="11">
-        <v>393207</v>
+        <v>583818</v>
       </c>
       <c r="G106" s="11">
-        <v>583818</v>
-      </c>
-      <c r="H106" s="11">
         <v>491231</v>
       </c>
+      <c r="H106" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I106" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J106" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K106" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L106" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M106" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N106" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>4537534</v>
+        <v>10529879</v>
       </c>
       <c r="F107" s="15">
-        <v>10529879</v>
+        <v>12449964</v>
       </c>
       <c r="G107" s="15">
-        <v>12449964</v>
+        <v>10792501</v>
       </c>
       <c r="H107" s="15">
-        <v>10792501</v>
+        <v>12472313</v>
       </c>
       <c r="I107" s="15">
-        <v>12472313</v>
+        <v>26993232</v>
       </c>
       <c r="J107" s="15">
-        <v>26993232</v>
+        <v>22774849</v>
       </c>
       <c r="K107" s="15">
-        <v>22774849</v>
+        <v>19735858</v>
       </c>
       <c r="L107" s="15">
-        <v>19735858</v>
+        <v>23151033</v>
       </c>
       <c r="M107" s="15">
-        <v>23151033</v>
+        <v>17090292</v>
       </c>
       <c r="N107" s="15">
-        <v>17090292</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13845624</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4140,7 +4140,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4155,7 +4155,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4170,7 +4170,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>49</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4222,356 +4222,356 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G113" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F113" s="9">
+        <v>0</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L113" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M113" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N113" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D114" s="11"/>
-      <c r="E114" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F114" s="11">
+      <c r="E114" s="11">
         <v>530357</v>
       </c>
+      <c r="F114" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="G114" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J114" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K114" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L114" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M114" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N114" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>600495</v>
+        <v>428450</v>
       </c>
       <c r="F115" s="9">
-        <v>428450</v>
+        <v>593021</v>
       </c>
       <c r="G115" s="9">
-        <v>593021</v>
-      </c>
-      <c r="H115" s="9">
         <v>527760</v>
       </c>
+      <c r="H115" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I115" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N115" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>519411</v>
+        <v>610670</v>
       </c>
       <c r="F116" s="11">
-        <v>610670</v>
+        <v>816563</v>
       </c>
       <c r="G116" s="11">
-        <v>816563</v>
-      </c>
-      <c r="H116" s="11">
         <v>801478</v>
       </c>
+      <c r="H116" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I116" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J116" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K116" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L116" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M116" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N116" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F117" s="9">
+        <v>1202572</v>
       </c>
       <c r="G117" s="9">
-        <v>1202572</v>
-      </c>
-      <c r="H117" s="9">
         <v>634478</v>
       </c>
+      <c r="H117" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I117" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L117" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M117" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N117" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>2835060</v>
+        <v>8567195</v>
       </c>
       <c r="F118" s="11">
-        <v>8567195</v>
+        <v>9253990</v>
       </c>
       <c r="G118" s="11">
-        <v>9253990</v>
+        <v>8337554</v>
       </c>
       <c r="H118" s="11">
-        <v>8337554</v>
+        <v>12472313</v>
       </c>
       <c r="I118" s="11">
-        <v>12472313</v>
+        <v>26993232</v>
       </c>
       <c r="J118" s="11">
-        <v>26993232</v>
+        <v>22774849</v>
       </c>
       <c r="K118" s="11">
-        <v>22774849</v>
+        <v>19735858</v>
       </c>
       <c r="L118" s="11">
-        <v>19735858</v>
+        <v>23151033</v>
       </c>
       <c r="M118" s="11">
-        <v>23151033</v>
+        <v>17090292</v>
       </c>
       <c r="N118" s="11">
-        <v>17090292</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13845624</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F119" s="9">
+        <v>0</v>
       </c>
       <c r="G119" s="9">
         <v>0</v>
       </c>
-      <c r="H119" s="9">
-        <v>0</v>
+      <c r="H119" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L119" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M119" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N119" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
-        <v>582568</v>
+        <v>393207</v>
       </c>
       <c r="F120" s="11">
-        <v>393207</v>
+        <v>583818</v>
       </c>
       <c r="G120" s="11">
-        <v>583818</v>
-      </c>
-      <c r="H120" s="11">
         <v>491231</v>
       </c>
+      <c r="H120" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I120" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J120" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K120" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L120" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M120" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N120" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
-        <v>4537534</v>
+        <v>10529879</v>
       </c>
       <c r="F121" s="15">
-        <v>10529879</v>
+        <v>12449964</v>
       </c>
       <c r="G121" s="15">
-        <v>12449964</v>
+        <v>10792501</v>
       </c>
       <c r="H121" s="15">
-        <v>10792501</v>
+        <v>12472313</v>
       </c>
       <c r="I121" s="15">
-        <v>12472313</v>
+        <v>26993232</v>
       </c>
       <c r="J121" s="15">
-        <v>26993232</v>
+        <v>22774849</v>
       </c>
       <c r="K121" s="15">
-        <v>22774849</v>
+        <v>19735858</v>
       </c>
       <c r="L121" s="15">
-        <v>19735858</v>
+        <v>23151033</v>
       </c>
       <c r="M121" s="15">
-        <v>23151033</v>
+        <v>17090292</v>
       </c>
       <c r="N121" s="15">
-        <v>17090292</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13845624</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4586,7 +4586,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4601,7 +4601,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4616,7 +4616,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>50</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4668,90 +4668,90 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F127" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G127" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F127" s="9">
+        <v>0</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L127" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N127" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D128" s="11"/>
-      <c r="E128" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F128" s="11">
-        <v>0</v>
+      <c r="E128" s="11">
+        <v>0</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J128" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K128" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L128" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M128" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N128" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
@@ -4763,34 +4763,34 @@
       <c r="G129" s="9">
         <v>0</v>
       </c>
-      <c r="H129" s="9">
-        <v>0</v>
+      <c r="H129" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L129" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M129" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N129" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
@@ -4802,73 +4802,73 @@
       <c r="G130" s="11">
         <v>0</v>
       </c>
-      <c r="H130" s="11">
-        <v>0</v>
+      <c r="H130" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J130" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K130" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L130" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M130" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N130" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D131" s="9"/>
-      <c r="E131" s="9">
-        <v>0</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>25</v>
+      <c r="E131" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F131" s="9">
+        <v>0</v>
       </c>
       <c r="G131" s="9">
         <v>0</v>
       </c>
-      <c r="H131" s="9">
-        <v>0</v>
+      <c r="H131" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N131" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
@@ -4902,51 +4902,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F133" s="9">
+        <v>0</v>
       </c>
       <c r="G133" s="9">
         <v>0</v>
       </c>
-      <c r="H133" s="9">
-        <v>0</v>
+      <c r="H133" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K133" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L133" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M133" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N133" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
@@ -4958,29 +4958,29 @@
       <c r="G134" s="11">
         <v>0</v>
       </c>
-      <c r="H134" s="11">
-        <v>0</v>
+      <c r="H134" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J134" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K134" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L134" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M134" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N134" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
         <v>17</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -5032,7 +5032,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -5047,7 +5047,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -5062,7 +5062,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>51</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5114,7 +5114,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>32</v>
       </c>
@@ -5122,38 +5122,38 @@
         <v>52</v>
       </c>
       <c r="D141" s="9"/>
-      <c r="E141" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F141" s="9">
+      <c r="E141" s="9">
         <v>3833998</v>
       </c>
+      <c r="F141" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N141" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>34</v>
       </c>
@@ -5162,37 +5162,37 @@
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
-        <v>6794</v>
+        <v>5009</v>
       </c>
       <c r="F142" s="11">
-        <v>5009</v>
+        <v>6933</v>
       </c>
       <c r="G142" s="11">
-        <v>6933</v>
-      </c>
-      <c r="H142" s="11">
         <v>5971</v>
       </c>
+      <c r="H142" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I142" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J142" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K142" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L142" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M142" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N142" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>36</v>
       </c>
@@ -5201,37 +5201,37 @@
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
-        <v>35122</v>
+        <v>101616</v>
       </c>
       <c r="F143" s="9">
-        <v>101616</v>
+        <v>116181</v>
       </c>
       <c r="G143" s="9">
-        <v>116181</v>
-      </c>
-      <c r="H143" s="9">
         <v>184931</v>
       </c>
+      <c r="H143" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I143" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L143" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M143" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N143" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>38</v>
       </c>
@@ -5240,37 +5240,37 @@
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F144" s="11">
+        <v>4570380</v>
       </c>
       <c r="G144" s="11">
-        <v>4570380</v>
-      </c>
-      <c r="H144" s="11">
         <v>4570377</v>
       </c>
+      <c r="H144" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I144" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J144" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K144" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L144" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M144" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N144" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>40</v>
       </c>
@@ -5279,37 +5279,37 @@
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
-        <v>8183</v>
+        <v>22327</v>
       </c>
       <c r="F145" s="9">
-        <v>22327</v>
+        <v>26595</v>
       </c>
       <c r="G145" s="9">
-        <v>26595</v>
+        <v>21311</v>
       </c>
       <c r="H145" s="9">
-        <v>21311</v>
+        <v>32688</v>
       </c>
       <c r="I145" s="9">
-        <v>32688</v>
+        <v>76741</v>
       </c>
       <c r="J145" s="9">
-        <v>76741</v>
+        <v>74884</v>
       </c>
       <c r="K145" s="9">
-        <v>74884</v>
+        <v>50089</v>
       </c>
       <c r="L145" s="9">
+        <v>59847</v>
+      </c>
+      <c r="M145" s="9">
         <v>50089</v>
-      </c>
-      <c r="M145" s="9">
-        <v>59847</v>
       </c>
       <c r="N145" s="9">
         <v>50089</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>42</v>
       </c>
@@ -5318,37 +5318,37 @@
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
-        <v>1299479</v>
+        <v>960184</v>
       </c>
       <c r="F146" s="11">
-        <v>960184</v>
+        <v>1314666</v>
       </c>
       <c r="G146" s="11">
-        <v>1314666</v>
-      </c>
-      <c r="H146" s="11">
         <v>1144602</v>
       </c>
+      <c r="H146" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I146" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J146" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K146" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L146" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M146" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N146" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -5363,7 +5363,7 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -5378,7 +5378,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5393,7 +5393,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
         <v>56</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5445,7 +5445,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>32</v>
       </c>
@@ -5453,38 +5453,38 @@
         <v>52</v>
       </c>
       <c r="D152" s="9"/>
-      <c r="E152" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F152" s="9">
+      <c r="E152" s="9">
         <v>3833998</v>
       </c>
+      <c r="F152" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G152" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L152" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M152" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N152" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>34</v>
       </c>
@@ -5493,37 +5493,37 @@
       </c>
       <c r="D153" s="11"/>
       <c r="E153" s="11">
-        <v>6794</v>
+        <v>5009</v>
       </c>
       <c r="F153" s="11">
-        <v>5009</v>
+        <v>6933</v>
       </c>
       <c r="G153" s="11">
-        <v>6933</v>
-      </c>
-      <c r="H153" s="11">
         <v>5971</v>
       </c>
+      <c r="H153" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I153" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J153" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K153" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L153" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M153" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N153" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>36</v>
       </c>
@@ -5532,37 +5532,37 @@
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9">
-        <v>35122</v>
+        <v>101616</v>
       </c>
       <c r="F154" s="9">
-        <v>101616</v>
+        <v>116181</v>
       </c>
       <c r="G154" s="9">
-        <v>116181</v>
-      </c>
-      <c r="H154" s="9">
         <v>184931</v>
       </c>
+      <c r="H154" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I154" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J154" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L154" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M154" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N154" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>38</v>
       </c>
@@ -5571,37 +5571,37 @@
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F155" s="11">
+        <v>4570380</v>
       </c>
       <c r="G155" s="11">
-        <v>4570380</v>
-      </c>
-      <c r="H155" s="11">
         <v>4570377</v>
       </c>
+      <c r="H155" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I155" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J155" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K155" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L155" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M155" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N155" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>40</v>
       </c>
@@ -5610,37 +5610,37 @@
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9">
-        <v>8183</v>
+        <v>22327</v>
       </c>
       <c r="F156" s="9">
-        <v>22327</v>
+        <v>26595</v>
       </c>
       <c r="G156" s="9">
-        <v>26595</v>
+        <v>21311</v>
       </c>
       <c r="H156" s="9">
-        <v>21311</v>
+        <v>32688</v>
       </c>
       <c r="I156" s="9">
-        <v>32688</v>
+        <v>76741</v>
       </c>
       <c r="J156" s="9">
-        <v>76741</v>
+        <v>74884</v>
       </c>
       <c r="K156" s="9">
-        <v>74884</v>
+        <v>50089</v>
       </c>
       <c r="L156" s="9">
+        <v>59847</v>
+      </c>
+      <c r="M156" s="9">
         <v>50089</v>
-      </c>
-      <c r="M156" s="9">
-        <v>59847</v>
       </c>
       <c r="N156" s="9">
         <v>50089</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>42</v>
       </c>
@@ -5649,37 +5649,37 @@
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="11">
-        <v>1299479</v>
+        <v>960184</v>
       </c>
       <c r="F157" s="11">
-        <v>960184</v>
+        <v>1314666</v>
       </c>
       <c r="G157" s="11">
-        <v>1314666</v>
-      </c>
-      <c r="H157" s="11">
         <v>1144602</v>
       </c>
+      <c r="H157" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I157" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J157" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K157" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L157" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M157" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N157" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -5694,7 +5694,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -5709,7 +5709,7 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5724,7 +5724,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B161" s="7" t="s">
         <v>57</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5776,7 +5776,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>58</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>59</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>60</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>61</v>
       </c>
@@ -5924,155 +5924,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="E167" s="9">
-        <v>101310</v>
+        <v>68935</v>
       </c>
       <c r="F167" s="9">
-        <v>68935</v>
+        <v>102037</v>
       </c>
       <c r="G167" s="9">
-        <v>102037</v>
+        <v>66567</v>
       </c>
       <c r="H167" s="9">
-        <v>66567</v>
+        <v>124031</v>
       </c>
       <c r="I167" s="9">
-        <v>124031</v>
+        <v>58907</v>
       </c>
       <c r="J167" s="9">
-        <v>58907</v>
+        <v>677439</v>
       </c>
       <c r="K167" s="9">
-        <v>677439</v>
+        <v>279608</v>
       </c>
       <c r="L167" s="9">
-        <v>279608</v>
+        <v>-283319</v>
       </c>
       <c r="M167" s="9">
-        <v>-283319</v>
+        <v>95691</v>
       </c>
       <c r="N167" s="9">
-        <v>95691</v>
-      </c>
-    </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+        <v>82560</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
       <c r="E168" s="11">
-        <v>7587989</v>
+        <v>459349</v>
       </c>
       <c r="F168" s="11">
-        <v>459349</v>
+        <v>445198</v>
       </c>
       <c r="G168" s="11">
-        <v>445198</v>
+        <v>1242027</v>
       </c>
       <c r="H168" s="11">
-        <v>1242027</v>
+        <v>16615309</v>
       </c>
       <c r="I168" s="11">
-        <v>16615309</v>
+        <v>7794618</v>
       </c>
       <c r="J168" s="11">
-        <v>7794618</v>
+        <v>-1276757</v>
       </c>
       <c r="K168" s="11">
-        <v>-1276757</v>
+        <v>3617140</v>
       </c>
       <c r="L168" s="11">
-        <v>3617140</v>
+        <v>4744775</v>
       </c>
       <c r="M168" s="11">
-        <v>4744775</v>
+        <v>3672861</v>
       </c>
       <c r="N168" s="11">
-        <v>3672861</v>
-      </c>
-    </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2940151</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9">
-        <v>663807</v>
+        <v>640631</v>
       </c>
       <c r="F169" s="9">
-        <v>640631</v>
+        <v>645019</v>
       </c>
       <c r="G169" s="9">
-        <v>645019</v>
+        <v>671103</v>
       </c>
       <c r="H169" s="9">
-        <v>671103</v>
+        <v>673228</v>
       </c>
       <c r="I169" s="9">
-        <v>673228</v>
+        <v>660590</v>
       </c>
       <c r="J169" s="9">
-        <v>660590</v>
+        <v>653643</v>
       </c>
       <c r="K169" s="9">
-        <v>653643</v>
+        <v>420177</v>
       </c>
       <c r="L169" s="9">
-        <v>420177</v>
+        <v>591881</v>
       </c>
       <c r="M169" s="9">
-        <v>591881</v>
+        <v>559829</v>
       </c>
       <c r="N169" s="9">
-        <v>559829</v>
-      </c>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+        <v>585060</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11">
-        <v>618861</v>
+        <v>462553</v>
       </c>
       <c r="F170" s="11">
-        <v>462553</v>
+        <v>501117</v>
       </c>
       <c r="G170" s="11">
-        <v>501117</v>
+        <v>497040</v>
       </c>
       <c r="H170" s="11">
-        <v>497040</v>
+        <v>1555470</v>
       </c>
       <c r="I170" s="11">
-        <v>1555470</v>
+        <v>594575</v>
       </c>
       <c r="J170" s="11">
-        <v>594575</v>
+        <v>782629</v>
       </c>
       <c r="K170" s="11">
-        <v>782629</v>
+        <v>672801</v>
       </c>
       <c r="L170" s="11">
-        <v>672801</v>
+        <v>1228045</v>
       </c>
       <c r="M170" s="11">
-        <v>1228045</v>
+        <v>1185714</v>
       </c>
       <c r="N170" s="11">
-        <v>1185714</v>
-      </c>
-    </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1158594</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>66</v>
       </c>
@@ -6109,81 +6109,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11">
-        <v>84402</v>
+        <v>1697946</v>
       </c>
       <c r="F172" s="11">
-        <v>1697946</v>
+        <v>2080123</v>
       </c>
       <c r="G172" s="11">
-        <v>2080123</v>
+        <v>1255319</v>
       </c>
       <c r="H172" s="11">
-        <v>1255319</v>
+        <v>1550381</v>
       </c>
       <c r="I172" s="11">
-        <v>1550381</v>
+        <v>1429176</v>
       </c>
       <c r="J172" s="11">
-        <v>1429176</v>
+        <v>13409450</v>
       </c>
       <c r="K172" s="11">
-        <v>13409450</v>
+        <v>19433475</v>
       </c>
       <c r="L172" s="11">
-        <v>19433475</v>
+        <v>11890445</v>
       </c>
       <c r="M172" s="11">
-        <v>11890445</v>
+        <v>10097636</v>
       </c>
       <c r="N172" s="11">
-        <v>10097636</v>
-      </c>
-    </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12011233</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
       <c r="E173" s="15">
-        <v>9056369</v>
+        <v>3329414</v>
       </c>
       <c r="F173" s="15">
-        <v>3329414</v>
+        <v>3773494</v>
       </c>
       <c r="G173" s="15">
-        <v>3773494</v>
+        <v>3732056</v>
       </c>
       <c r="H173" s="15">
-        <v>3732056</v>
+        <v>20518419</v>
       </c>
       <c r="I173" s="15">
-        <v>20518419</v>
+        <v>10537866</v>
       </c>
       <c r="J173" s="15">
-        <v>10537866</v>
+        <v>14246404</v>
       </c>
       <c r="K173" s="15">
-        <v>14246404</v>
+        <v>24423201</v>
       </c>
       <c r="L173" s="15">
-        <v>24423201</v>
+        <v>18171827</v>
       </c>
       <c r="M173" s="15">
-        <v>18171827</v>
+        <v>15611731</v>
       </c>
       <c r="N173" s="15">
-        <v>15611731</v>
-      </c>
-    </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16777598</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -6198,7 +6198,7 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -6213,7 +6213,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -6228,7 +6228,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B177" s="7" t="s">
         <v>68</v>
       </c>
@@ -6245,7 +6245,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -6260,7 +6260,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>69</v>
       </c>
@@ -6279,7 +6279,7 @@
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>71</v>
       </c>
@@ -6298,7 +6298,7 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>73</v>
       </c>
@@ -6317,7 +6317,7 @@
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>75</v>
       </c>
@@ -6336,7 +6336,7 @@
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>77</v>
       </c>
@@ -6347,7 +6347,7 @@
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>79</v>
       </c>
@@ -6358,7 +6358,7 @@
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>81</v>
       </c>
@@ -6369,7 +6369,7 @@
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>83</v>
       </c>
@@ -6380,7 +6380,7 @@
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>85</v>
       </c>
@@ -6391,7 +6391,7 @@
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>87</v>
       </c>
@@ -6402,7 +6402,7 @@
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>89</v>
       </c>
@@ -6413,7 +6413,7 @@
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>90</v>
       </c>
@@ -6424,7 +6424,7 @@
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="8" t="s">
         <v>92</v>
       </c>
